--- a/Projects/CCRU/Data/KPIs_2019/Gaps Guide 2019.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/Gaps Guide 2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="rules" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,8 +22,8 @@
     <sheet name="PoS 2019 - IC QSR" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="PoS 2019 - IC Canteen - EDU" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="PoS 2019 - IC Canteen - OTH" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Pos 2019 - MT - Hypermarket CAP" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Pos 2019 - MT - Hypermarket REG" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Pos 2019 - MT - Hypermarket - CAP" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="Pos 2019 - MT - Hypermarket - REG" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="PoS 2019 - MT Supermarket - CAP" sheetId="17" state="visible" r:id="rId18"/>
     <sheet name="PoS 2019 - MT Supermarket - REG" sheetId="18" state="visible" r:id="rId19"/>
     <sheet name="PoS 2019 - MT Conv Big - CAP" sheetId="19" state="visible" r:id="rId20"/>
@@ -32,7 +32,7 @@
     <sheet name="PoS 2019 - MT Conv Small - REG" sheetId="22" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2019 - MT - Hypermarket CAP'!$1:$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2019 - MT - Hypermarket - CAP'!$1:$23</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'PoS 2019 - MT Supermarket - CAP'!$A$1:$K$22</definedName>
     <definedName function="false" hidden="false" localSheetId="18" name="_xlnm._FilterDatabase" vbProcedure="false">'PoS 2019 - MT Conv Big - CAP'!$A$1:$K$17</definedName>
   </definedNames>
@@ -899,16 +899,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0000000"/>
-    <numFmt numFmtId="167" formatCode="0.00"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0000000"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.0000000\ _₽_-;\-* #,##0.0000000\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.0000000\ _₽_-;\-* #,##0.0000000\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -932,19 +931,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -965,19 +951,19 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1009,7 +995,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1028,20 +1014,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1051,198 +1031,136 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="3" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="15" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="15" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="3" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Comma 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Explanatory Text 2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006100"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFC6EFCE"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1257,9 +1175,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>289800</xdr:colOff>
+      <xdr:colOff>289440</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1273,7 +1191,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17892000" cy="2221920"/>
+          <a:ext cx="17891640" cy="2221560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1299,9 +1217,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>504360</xdr:colOff>
+      <xdr:colOff>504000</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1311,7 +1229,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12629520" cy="10131480"/>
+          <a:ext cx="12695760" cy="10131120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1344,9 +1262,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>504360</xdr:colOff>
+      <xdr:colOff>504000</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1356,7 +1274,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12629520" cy="10131480"/>
+          <a:ext cx="12695760" cy="10131120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1389,9 +1307,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>504360</xdr:colOff>
+      <xdr:colOff>504000</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1401,7 +1319,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12629520" cy="10131480"/>
+          <a:ext cx="12695760" cy="10131120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1468,15 +1386,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="42.7408906882591"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.0283400809717"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -1960,15 +1878,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.7408906882591"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2079,7 +1997,7 @@
       </c>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" s="1" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -2113,9 +2031,8 @@
       <c r="K4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AMJ4" s="0"/>
-    </row>
-    <row r="5" s="1" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -2149,9 +2066,8 @@
       <c r="K5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="AMJ5" s="0"/>
-    </row>
-    <row r="6" s="1" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -2185,9 +2101,8 @@
       <c r="K6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AMJ6" s="0"/>
-    </row>
-    <row r="7" s="1" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
@@ -2221,9 +2136,8 @@
       <c r="K7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="AMJ7" s="0"/>
-    </row>
-    <row r="8" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
@@ -2257,9 +2171,8 @@
       <c r="K8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="AMJ8" s="0"/>
-    </row>
-    <row r="9" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
@@ -2293,9 +2206,8 @@
       <c r="K9" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="AMJ9" s="0"/>
-    </row>
-    <row r="10" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>33</v>
       </c>
@@ -2329,9 +2241,8 @@
       <c r="K10" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="AMJ10" s="0"/>
-    </row>
-    <row r="11" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
@@ -2365,11 +2276,8 @@
       <c r="K11" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="AMH11" s="0"/>
-      <c r="AMI11" s="0"/>
-      <c r="AMJ11" s="0"/>
-    </row>
-    <row r="12" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
@@ -2403,9 +2311,8 @@
       <c r="K12" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="AMJ12" s="0"/>
-    </row>
-    <row r="13" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
@@ -2439,7 +2346,6 @@
       <c r="K13" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="AMJ13" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2465,15 +2371,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="42.7408906882591"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.0283400809717"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -2782,15 +2688,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="42.7408906882591"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -3134,15 +3040,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.7408906882591"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3485,15 +3391,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -4329,15 +4235,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.7408906882591"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5171,15 +5077,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.7408906882591"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5978,15 +5884,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.7408906882591"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6750,15 +6656,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.7408906882591"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7376,21 +7282,21 @@
   </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="42.7408906882591"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.0283400809717"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -7953,15 +7859,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.7408906882591"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.1052631578947"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8550,15 +8456,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.7408906882591"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="29" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="29" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -9141,21 +9047,21 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.7408906882591"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -9744,15 +9650,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.7408906882591"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -9827,7 +9733,7 @@
       </c>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="1" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -9861,9 +9767,8 @@
       <c r="K3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AMJ3" s="0"/>
-    </row>
-    <row r="4" s="1" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -9897,9 +9802,8 @@
       <c r="K4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AMJ4" s="0"/>
-    </row>
-    <row r="5" s="1" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -9933,9 +9837,8 @@
       <c r="K5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="AMJ5" s="0"/>
-    </row>
-    <row r="6" s="1" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -9969,9 +9872,8 @@
       <c r="K6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AMJ6" s="0"/>
-    </row>
-    <row r="7" s="1" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -10005,9 +9907,8 @@
       <c r="K7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="AMJ7" s="0"/>
-    </row>
-    <row r="8" s="1" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -10041,9 +9942,8 @@
       <c r="K8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="AMJ8" s="0"/>
-    </row>
-    <row r="9" s="1" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -10077,9 +9977,8 @@
       <c r="K9" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="AMJ9" s="0"/>
-    </row>
-    <row r="10" s="1" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>33</v>
       </c>
@@ -10113,9 +10012,8 @@
       <c r="K10" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="AMJ10" s="0"/>
-    </row>
-    <row r="11" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
@@ -10149,9 +10047,8 @@
       <c r="K11" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="AMJ11" s="0"/>
-    </row>
-    <row r="12" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
@@ -10185,9 +10082,8 @@
       <c r="K12" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="AMJ12" s="0"/>
-    </row>
-    <row r="13" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
@@ -10221,9 +10117,8 @@
       <c r="K13" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="AMJ13" s="0"/>
-    </row>
-    <row r="14" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
@@ -10257,7 +10152,6 @@
       <c r="K14" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="AMJ14" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10283,15 +10177,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.7408906882591"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -10564,15 +10458,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.7408906882591"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -10845,15 +10739,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.3157894736842"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.0283400809717"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -11092,15 +10986,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.3157894736842"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -11175,7 +11069,7 @@
       </c>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="1" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -11209,9 +11103,8 @@
       <c r="K3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AMJ3" s="0"/>
-    </row>
-    <row r="4" s="1" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -11245,9 +11138,8 @@
       <c r="K4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AMJ4" s="0"/>
-    </row>
-    <row r="5" s="1" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -11281,9 +11173,8 @@
       <c r="K5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="AMJ5" s="0"/>
-    </row>
-    <row r="6" s="1" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -11317,7 +11208,6 @@
       <c r="K6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AMJ6" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -11343,15 +11233,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.3157894736842"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -11426,7 +11316,7 @@
       </c>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="1" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -11460,9 +11350,8 @@
       <c r="K3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AMJ3" s="0"/>
-    </row>
-    <row r="4" s="1" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -11496,9 +11385,8 @@
       <c r="K4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AMJ4" s="0"/>
-    </row>
-    <row r="5" s="1" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -11532,9 +11420,8 @@
       <c r="K5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="AMJ5" s="0"/>
-    </row>
-    <row r="6" s="1" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -11568,7 +11455,6 @@
       <c r="K6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AMJ6" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -11594,15 +11480,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.3157894736842"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/CCRU/Data/KPIs_2019/Gaps Guide 2019.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/Gaps Guide 2019.xlsx
@@ -13,10 +13,10 @@
     <sheet name="PoS 2019 - FT - REG" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="PoS 2019 - FT NS - CAP" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="PoS 2019 - FT NS - REG" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="PoS 2019 - IC HoReCa Rest - CAP" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="PoS 2019 - IC HoReCa Rest - REG" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="PoS 2019 - IC HoReCa Bar - CAP" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="PoS 2019 - IC HoReCa Bar - REG" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="PoS 2019 - IC HoReCa RestCafeTea - CAP" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="PoS 2019 - IC HoReCa RestCafeTea - REG" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="PoS 2019 - IC HoReCa BarTavernClub - CAP" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="PoS 2019 - IC HoReCa BarTavernClub - REG" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="PoS 2019 - IC Petroleum - CAP" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="PoS 2019 - IC Petroleum - REG" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="PoS 2019 - IC QSR" sheetId="12" state="visible" r:id="rId13"/>
@@ -1175,9 +1175,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>289440</xdr:colOff>
+      <xdr:colOff>289080</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1191,7 +1191,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17891640" cy="2221560"/>
+          <a:ext cx="17891280" cy="2221200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1217,9 +1217,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>504000</xdr:colOff>
+      <xdr:colOff>503640</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1229,7 +1229,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12695760" cy="10131120"/>
+          <a:ext cx="12762000" cy="10130760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1262,9 +1262,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>504000</xdr:colOff>
+      <xdr:colOff>503640</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1274,7 +1274,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12695760" cy="10131120"/>
+          <a:ext cx="12762000" cy="10130760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1307,9 +1307,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>504000</xdr:colOff>
+      <xdr:colOff>503640</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1319,7 +1319,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12695760" cy="10131120"/>
+          <a:ext cx="12762000" cy="10130760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1386,15 +1386,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.2429149797571"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -1878,15 +1878,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2371,15 +2371,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.2429149797571"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -2688,15 +2688,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -3040,15 +3040,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3391,15 +3391,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.7085020242915"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -4235,15 +4235,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5077,15 +5077,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5884,15 +5884,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6656,15 +6656,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7288,15 +7288,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.2429149797571"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -7859,15 +7859,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8456,15 +8456,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="29" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="29" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -9053,15 +9053,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -9650,15 +9650,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -10177,15 +10177,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -10458,15 +10458,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -10739,15 +10739,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.2429149797571"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -10986,15 +10986,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -11233,15 +11233,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -11474,21 +11474,21 @@
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/CCRU/Data/KPIs_2019/Gaps Guide 2019.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/Gaps Guide 2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="21"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="rules" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,8 +22,8 @@
     <sheet name="PoS 2019 - IC QSR" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="PoS 2019 - IC Canteen - EDU" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="PoS 2019 - IC Canteen - OTH" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Pos 2019 - MT - Hypermarket - CAP" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Pos 2019 - MT - Hypermarket - REG" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="PoS 2019 - MT Hypermarket - CAP" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="PoS 2019 - MT Hypermarket - REG" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="PoS 2019 - MT Supermarket - CAP" sheetId="17" state="visible" r:id="rId18"/>
     <sheet name="PoS 2019 - MT Supermarket - REG" sheetId="18" state="visible" r:id="rId19"/>
     <sheet name="PoS 2019 - MT Conv Big - CAP" sheetId="19" state="visible" r:id="rId20"/>
@@ -32,7 +32,7 @@
     <sheet name="PoS 2019 - MT Conv Small - REG" sheetId="22" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2019 - MT - Hypermarket - CAP'!$1:$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'PoS 2019 - MT Hypermarket - CAP'!$1:$23</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'PoS 2019 - MT Supermarket - CAP'!$A$1:$K$22</definedName>
     <definedName function="false" hidden="false" localSheetId="18" name="_xlnm._FilterDatabase" vbProcedure="false">'PoS 2019 - MT Conv Big - CAP'!$A$1:$K$17</definedName>
   </definedNames>
@@ -1175,9 +1175,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
+      <xdr:colOff>288720</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1191,7 +1191,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17891280" cy="2221200"/>
+          <a:ext cx="17890920" cy="2220840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1217,9 +1217,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>503640</xdr:colOff>
+      <xdr:colOff>503280</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1229,7 +1229,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12762000" cy="10130760"/>
+          <a:ext cx="12837960" cy="10130400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1262,9 +1262,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>503640</xdr:colOff>
+      <xdr:colOff>503280</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1274,7 +1274,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12762000" cy="10130760"/>
+          <a:ext cx="12837960" cy="10130400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1307,9 +1307,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>503640</xdr:colOff>
+      <xdr:colOff>503280</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1319,7 +1319,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12762000" cy="10130760"/>
+          <a:ext cx="12837960" cy="10130400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1386,15 +1386,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="43.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -1878,15 +1878,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2371,15 +2371,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="43.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -2688,15 +2688,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="43.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -3040,15 +3040,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3391,15 +3391,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.9230769230769"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -4235,15 +4235,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5077,15 +5077,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5884,15 +5884,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6650,21 +6650,21 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7288,15 +7288,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="43.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -7859,15 +7859,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8456,15 +8456,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="29" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="29" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -9047,21 +9047,21 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -9650,15 +9650,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -10177,15 +10177,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -10458,15 +10458,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -10739,15 +10739,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.7449392712551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -10986,15 +10986,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.7449392712551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -11233,15 +11233,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.7449392712551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -11480,15 +11480,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.7449392712551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/CCRU/Data/KPIs_2019/Gaps Guide 2019.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/Gaps Guide 2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="19"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="rules" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,10 +13,10 @@
     <sheet name="PoS 2019 - FT - REG" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="PoS 2019 - FT NS - CAP" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="PoS 2019 - FT NS - REG" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="PoS2019 ICHoReCa RestCafeTe " sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="PoS 2019 ICHoReCa BarTavern" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="PoS 2019 - Cinema CAP " sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="PoS 2019 - Cinema REG " sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="PoS 2019 - IC HoReCa RestCafeTea" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="PoS 2019 - IC HoReCa BarTavernClub" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="PoS 2019 - Cinema - CAP " sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="PoS 2019 - Cinema - REG " sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="PoS 2019 - FastFood " sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="PoS 2019 - IC Petroleum - CAP" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="PoS 2019 - IC Petroleum - REG" sheetId="12" state="visible" r:id="rId13"/>
@@ -1285,7 +1285,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -1312,9 +1312,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
+      <xdr:colOff>287280</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>124920</xdr:rowOff>
+      <xdr:rowOff>124200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1328,7 +1328,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17890200" cy="2220120"/>
+          <a:ext cx="17889480" cy="2219400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1354,9 +1354,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
+      <xdr:colOff>502200</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>149400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1366,7 +1366,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12961440" cy="9876960"/>
+          <a:ext cx="13132080" cy="9876240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1396,9 +1396,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
+      <xdr:colOff>502200</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>149400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1408,7 +1408,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12961440" cy="9876960"/>
+          <a:ext cx="13132080" cy="9876240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1438,9 +1438,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
+      <xdr:colOff>502200</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>149400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1450,7 +1450,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12961440" cy="9876960"/>
+          <a:ext cx="13132080" cy="9876240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1480,9 +1480,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>294840</xdr:colOff>
+      <xdr:colOff>294120</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1492,7 +1492,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12753360" cy="9383400"/>
+          <a:ext cx="12924000" cy="9382680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1501,7 +1501,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1522,9 +1522,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>294840</xdr:colOff>
+      <xdr:colOff>294120</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1534,7 +1534,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12753360" cy="9383400"/>
+          <a:ext cx="12924000" cy="9382680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1543,7 +1543,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1564,9 +1564,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>294840</xdr:colOff>
+      <xdr:colOff>294120</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1576,7 +1576,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12753360" cy="9383400"/>
+          <a:ext cx="12924000" cy="9382680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1585,7 +1585,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1606,9 +1606,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>237960</xdr:colOff>
+      <xdr:colOff>237240</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1618,7 +1618,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12696480" cy="9383760"/>
+          <a:ext cx="12867120" cy="9383040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1651,9 +1651,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>237960</xdr:colOff>
+      <xdr:colOff>237240</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1663,7 +1663,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12696480" cy="9383760"/>
+          <a:ext cx="12867120" cy="9383040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1696,9 +1696,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>237960</xdr:colOff>
+      <xdr:colOff>237240</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1708,7 +1708,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12696480" cy="9383760"/>
+          <a:ext cx="12867120" cy="9383040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1746,9 +1746,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>828360</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>827640</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1758,7 +1758,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12601080" cy="9333720"/>
+          <a:ext cx="12762360" cy="8606520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1767,7 +1767,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1788,9 +1788,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>828360</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>827640</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1800,7 +1800,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12601080" cy="9333720"/>
+          <a:ext cx="12762360" cy="8606520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1809,7 +1809,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1830,9 +1830,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>828360</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:colOff>827640</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1842,7 +1842,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12601080" cy="9333720"/>
+          <a:ext cx="12762360" cy="8606520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1851,7 +1851,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1872,9 +1872,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>771480</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:colOff>770760</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1884,7 +1884,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12544200" cy="9143640"/>
+          <a:ext cx="12705480" cy="8444520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1917,9 +1917,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>771480</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:colOff>770760</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1929,7 +1929,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12544200" cy="9143640"/>
+          <a:ext cx="12705480" cy="8444520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1962,9 +1962,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>771480</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:colOff>770760</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1974,7 +1974,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12544200" cy="9143640"/>
+          <a:ext cx="12705480" cy="8444520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2012,9 +2012,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>828360</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>827640</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2024,7 +2024,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12601080" cy="9143280"/>
+          <a:ext cx="12762360" cy="8388360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2033,7 +2033,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2054,9 +2054,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>828360</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>827640</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2066,7 +2066,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12601080" cy="9143280"/>
+          <a:ext cx="12762360" cy="8388360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2075,7 +2075,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2096,9 +2096,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>828360</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>827640</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2108,7 +2108,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12601080" cy="9143280"/>
+          <a:ext cx="12762360" cy="8388360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2117,7 +2117,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2138,9 +2138,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>771480</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>770760</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2150,7 +2150,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12544200" cy="9334080"/>
+          <a:ext cx="12705480" cy="8550720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2183,9 +2183,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>771480</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>770760</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2195,7 +2195,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12544200" cy="9334080"/>
+          <a:ext cx="12705480" cy="8550720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2228,9 +2228,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>771480</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>770760</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2240,7 +2240,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12544200" cy="9334080"/>
+          <a:ext cx="12705480" cy="8550720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2278,9 +2278,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>828360</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>827640</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2290,7 +2290,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12601080" cy="9143280"/>
+          <a:ext cx="12762360" cy="8388360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2299,7 +2299,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2320,9 +2320,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>828360</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>827640</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2332,7 +2332,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12601080" cy="9143280"/>
+          <a:ext cx="12762360" cy="8388360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2341,7 +2341,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2362,9 +2362,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>828360</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>827640</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2374,7 +2374,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12601080" cy="9143280"/>
+          <a:ext cx="12762360" cy="8388360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2383,7 +2383,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2404,9 +2404,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>771480</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>770760</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2416,7 +2416,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12544200" cy="9334080"/>
+          <a:ext cx="12705480" cy="8550720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2449,9 +2449,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>771480</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>770760</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2461,7 +2461,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12544200" cy="9334080"/>
+          <a:ext cx="12705480" cy="8550720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2494,9 +2494,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>771480</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>770760</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2506,7 +2506,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12544200" cy="9334080"/>
+          <a:ext cx="12705480" cy="8550720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2544,9 +2544,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>828000</xdr:colOff>
+      <xdr:colOff>827280</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2556,7 +2556,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12600720" cy="9524160"/>
+          <a:ext cx="12762000" cy="9523440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2565,7 +2565,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2586,9 +2586,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>828000</xdr:colOff>
+      <xdr:colOff>827280</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2598,7 +2598,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12600720" cy="9524160"/>
+          <a:ext cx="12762000" cy="9523440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2607,7 +2607,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2628,9 +2628,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>828000</xdr:colOff>
+      <xdr:colOff>827280</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2640,7 +2640,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12600720" cy="9524160"/>
+          <a:ext cx="12762000" cy="9523440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2649,7 +2649,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2670,9 +2670,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>771120</xdr:colOff>
+      <xdr:colOff>770400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2682,7 +2682,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12543840" cy="9524520"/>
+          <a:ext cx="12705120" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>771120</xdr:colOff>
+      <xdr:colOff>770400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12543840" cy="9524520"/>
+          <a:ext cx="12705120" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2760,9 +2760,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>771120</xdr:colOff>
+      <xdr:colOff>770400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2772,7 +2772,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12543840" cy="9524520"/>
+          <a:ext cx="12705120" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2810,9 +2810,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>828000</xdr:colOff>
+      <xdr:colOff>827280</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2822,7 +2822,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12600720" cy="9524160"/>
+          <a:ext cx="12762000" cy="9523440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2831,7 +2831,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2852,9 +2852,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>828000</xdr:colOff>
+      <xdr:colOff>827280</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2864,7 +2864,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12600720" cy="9524160"/>
+          <a:ext cx="12762000" cy="9523440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2873,7 +2873,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2894,9 +2894,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>828000</xdr:colOff>
+      <xdr:colOff>827280</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2906,7 +2906,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12600720" cy="9524160"/>
+          <a:ext cx="12762000" cy="9523440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2915,7 +2915,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2936,9 +2936,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>771120</xdr:colOff>
+      <xdr:colOff>770400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2948,7 +2948,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12543840" cy="9524520"/>
+          <a:ext cx="12705120" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2981,9 +2981,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>771120</xdr:colOff>
+      <xdr:colOff>770400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2993,7 +2993,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12543840" cy="9524520"/>
+          <a:ext cx="12705120" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3026,9 +3026,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>771120</xdr:colOff>
+      <xdr:colOff>770400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3038,7 +3038,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12543840" cy="9524520"/>
+          <a:ext cx="12705120" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3076,9 +3076,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>828000</xdr:colOff>
+      <xdr:colOff>827280</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3088,7 +3088,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12600720" cy="9524160"/>
+          <a:ext cx="12762000" cy="9523440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3097,7 +3097,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3118,9 +3118,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>828000</xdr:colOff>
+      <xdr:colOff>827280</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3130,7 +3130,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12600720" cy="9524160"/>
+          <a:ext cx="12762000" cy="9523440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3139,7 +3139,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3160,9 +3160,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>828000</xdr:colOff>
+      <xdr:colOff>827280</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3172,7 +3172,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12600720" cy="9524160"/>
+          <a:ext cx="12762000" cy="9523440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3181,7 +3181,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3202,9 +3202,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>771120</xdr:colOff>
+      <xdr:colOff>770400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3214,7 +3214,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12543840" cy="9524520"/>
+          <a:ext cx="12705120" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3247,9 +3247,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>771120</xdr:colOff>
+      <xdr:colOff>770400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3259,7 +3259,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12543840" cy="9524520"/>
+          <a:ext cx="12705120" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3292,9 +3292,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>771120</xdr:colOff>
+      <xdr:colOff>770400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3304,7 +3304,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12543840" cy="9524520"/>
+          <a:ext cx="12705120" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3342,9 +3342,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>828000</xdr:colOff>
+      <xdr:colOff>827280</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3354,7 +3354,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12600720" cy="9524160"/>
+          <a:ext cx="12762000" cy="9523440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3363,7 +3363,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3384,9 +3384,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>828000</xdr:colOff>
+      <xdr:colOff>827280</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3396,7 +3396,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12600720" cy="9524160"/>
+          <a:ext cx="12762000" cy="9523440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3405,7 +3405,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3426,9 +3426,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>828000</xdr:colOff>
+      <xdr:colOff>827280</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3438,7 +3438,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12600720" cy="9524160"/>
+          <a:ext cx="12762000" cy="9523440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3447,7 +3447,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3468,9 +3468,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>771120</xdr:colOff>
+      <xdr:colOff>770400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3480,7 +3480,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12543840" cy="9524520"/>
+          <a:ext cx="12705120" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3513,9 +3513,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>771120</xdr:colOff>
+      <xdr:colOff>770400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3525,7 +3525,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12543840" cy="9524520"/>
+          <a:ext cx="12705120" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3558,9 +3558,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>771120</xdr:colOff>
+      <xdr:colOff>770400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3570,7 +3570,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12543840" cy="9524520"/>
+          <a:ext cx="12705120" cy="9523800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3627,25 +3627,26 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFFF3333"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.7408906882591"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="20" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="20" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.39271255060729"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3912,21 +3913,21 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.3157894736842"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -4511,15 +4512,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -4594,7 +4595,7 @@
       </c>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="1" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
         <v>11</v>
       </c>
@@ -4626,9 +4627,8 @@
         <v>2</v>
       </c>
       <c r="K3" s="25"/>
-      <c r="AMJ3" s="0"/>
-    </row>
-    <row r="4" s="1" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
         <v>11</v>
       </c>
@@ -4660,9 +4660,8 @@
         <v>3</v>
       </c>
       <c r="K4" s="25"/>
-      <c r="AMJ4" s="0"/>
-    </row>
-    <row r="5" s="1" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -4696,9 +4695,8 @@
       <c r="K5" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AMJ5" s="0"/>
-    </row>
-    <row r="6" s="1" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -4732,9 +4730,8 @@
       <c r="K6" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="AMJ6" s="0"/>
-    </row>
-    <row r="7" s="1" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -4768,9 +4765,8 @@
       <c r="K7" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AMJ7" s="0"/>
-    </row>
-    <row r="8" s="1" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
@@ -4804,9 +4800,8 @@
       <c r="K8" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="AMJ8" s="0"/>
-    </row>
-    <row r="9" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
@@ -4840,9 +4835,8 @@
       <c r="K9" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="AMJ9" s="0"/>
-    </row>
-    <row r="10" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>33</v>
       </c>
@@ -4876,9 +4870,8 @@
       <c r="K10" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="AMJ10" s="0"/>
-    </row>
-    <row r="11" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
@@ -4912,9 +4905,8 @@
       <c r="K11" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="AMJ11" s="0"/>
-    </row>
-    <row r="12" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
@@ -4948,9 +4940,8 @@
       <c r="K12" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="AMJ12" s="0"/>
-    </row>
-    <row r="13" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
@@ -4984,9 +4975,8 @@
       <c r="K13" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="AMJ13" s="0"/>
-    </row>
-    <row r="14" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
@@ -5020,9 +5010,8 @@
       <c r="K14" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="AMJ14" s="0"/>
-    </row>
-    <row r="15" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="s">
         <v>33</v>
       </c>
@@ -5056,9 +5045,8 @@
       <c r="K15" s="25" t="n">
         <v>13</v>
       </c>
-      <c r="AMJ15" s="0"/>
-    </row>
-    <row r="16" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="25" t="s">
         <v>33</v>
       </c>
@@ -5092,7 +5080,6 @@
       <c r="K16" s="25" t="n">
         <v>14</v>
       </c>
-      <c r="AMJ16" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5118,15 +5105,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.3157894736842"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -5435,15 +5422,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="26.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.5303643724696"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -5717,15 +5704,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5998,15 +5985,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="36.4210526315789"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="38" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="38" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.7773279352227"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -6808,15 +6795,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7616,15 +7603,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8354,15 +8341,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -9092,15 +9079,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.3157894736842"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -9657,21 +9644,21 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -10296,15 +10283,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -10894,15 +10881,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.3481781376518"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="48" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -11492,15 +11479,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.3481781376518"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12090,15 +12077,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12616,15 +12603,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12897,15 +12884,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13179,15 +13166,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.3157894736842"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -13427,15 +13414,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13674,15 +13661,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13985,21 +13972,21 @@
   </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/CCRU/Data/KPIs_2019/Gaps Guide 2019.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/Gaps Guide 2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="rules" sheetId="1" state="visible" r:id="rId2"/>
@@ -495,7 +495,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="131">
   <si>
     <t xml:space="preserve">Gap Category Rus</t>
   </si>
@@ -746,16 +746,16 @@
     <t xml:space="preserve">Chilled Shelf Share Energy</t>
   </si>
   <si>
-    <t xml:space="preserve">Chilled Shelf Share Ice Tea </t>
-  </si>
-  <si>
     <t xml:space="preserve">Охлажденная Доля Полки Чай</t>
   </si>
   <si>
-    <t xml:space="preserve">Chilled Shelf Share Juice</t>
+    <t xml:space="preserve">Chilled Shelf Share Ice Tea</t>
   </si>
   <si>
     <t xml:space="preserve">Охлажденная Доля Полки Сок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chilled Shelf Share Juice</t>
   </si>
   <si>
     <t xml:space="preserve">Activation bufet line</t>
@@ -882,6 +882,12 @@
   </si>
   <si>
     <t xml:space="preserve">Импульсная Активация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCB-Миксабилити Дисплей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCB-Mixability Display</t>
   </si>
 </sst>
 </file>
@@ -1312,9 +1318,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>286200</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1328,7 +1334,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17889480" cy="2219400"/>
+          <a:ext cx="17888400" cy="2218320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1354,9 +1360,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>502200</xdr:colOff>
+      <xdr:colOff>501120</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1366,7 +1372,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13132080" cy="9876240"/>
+          <a:ext cx="13397760" cy="9875160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1396,9 +1402,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>502200</xdr:colOff>
+      <xdr:colOff>501120</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1408,7 +1414,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13132080" cy="9876240"/>
+          <a:ext cx="13397760" cy="9875160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1438,9 +1444,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>502200</xdr:colOff>
+      <xdr:colOff>501120</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1450,7 +1456,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13132080" cy="9876240"/>
+          <a:ext cx="13397760" cy="9875160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1480,9 +1486,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>294120</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1492,7 +1498,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12924000" cy="9382680"/>
+          <a:ext cx="13189680" cy="9381600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1522,9 +1528,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>294120</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1534,7 +1540,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12924000" cy="9382680"/>
+          <a:ext cx="13189680" cy="9381600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1564,9 +1570,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>294120</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1576,7 +1582,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12924000" cy="9382680"/>
+          <a:ext cx="13189680" cy="9381600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1606,9 +1612,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>237240</xdr:colOff>
+      <xdr:colOff>236160</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1618,7 +1624,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12867120" cy="9383040"/>
+          <a:ext cx="13132800" cy="9381960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1651,9 +1657,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>237240</xdr:colOff>
+      <xdr:colOff>236160</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1663,7 +1669,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12867120" cy="9383040"/>
+          <a:ext cx="13132800" cy="9381960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1696,9 +1702,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>237240</xdr:colOff>
+      <xdr:colOff>236160</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1708,7 +1714,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12867120" cy="9383040"/>
+          <a:ext cx="13132800" cy="9381960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1746,9 +1752,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>827640</xdr:colOff>
+      <xdr:colOff>826560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1758,7 +1764,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12762360" cy="8606520"/>
+          <a:ext cx="12989880" cy="8605440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1788,9 +1794,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>827640</xdr:colOff>
+      <xdr:colOff>826560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1800,7 +1806,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12762360" cy="8606520"/>
+          <a:ext cx="12989880" cy="8605440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1830,9 +1836,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>827640</xdr:colOff>
+      <xdr:colOff>826560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1842,7 +1848,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12762360" cy="8606520"/>
+          <a:ext cx="12989880" cy="8605440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1872,9 +1878,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>770760</xdr:colOff>
+      <xdr:colOff>769680</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1884,7 +1890,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12705480" cy="8444520"/>
+          <a:ext cx="12933000" cy="8443440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1917,9 +1923,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>770760</xdr:colOff>
+      <xdr:colOff>769680</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1929,7 +1935,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12705480" cy="8444520"/>
+          <a:ext cx="12933000" cy="8443440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1962,9 +1968,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>770760</xdr:colOff>
+      <xdr:colOff>769680</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1974,7 +1980,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12705480" cy="8444520"/>
+          <a:ext cx="12933000" cy="8443440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2012,9 +2018,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>827640</xdr:colOff>
+      <xdr:colOff>826560</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2024,7 +2030,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12762360" cy="8388360"/>
+          <a:ext cx="12989880" cy="8387280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2054,9 +2060,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>827640</xdr:colOff>
+      <xdr:colOff>826560</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2066,7 +2072,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12762360" cy="8388360"/>
+          <a:ext cx="12989880" cy="8387280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2096,9 +2102,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>827640</xdr:colOff>
+      <xdr:colOff>826560</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2108,7 +2114,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12762360" cy="8388360"/>
+          <a:ext cx="12989880" cy="8387280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2138,9 +2144,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>770760</xdr:colOff>
+      <xdr:colOff>769680</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2150,7 +2156,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12705480" cy="8550720"/>
+          <a:ext cx="12933000" cy="8549640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2183,9 +2189,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>770760</xdr:colOff>
+      <xdr:colOff>769680</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2195,7 +2201,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12705480" cy="8550720"/>
+          <a:ext cx="12933000" cy="8549640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2228,9 +2234,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>770760</xdr:colOff>
+      <xdr:colOff>769680</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2240,7 +2246,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12705480" cy="8550720"/>
+          <a:ext cx="12933000" cy="8549640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2278,9 +2284,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>827640</xdr:colOff>
+      <xdr:colOff>826560</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2290,7 +2296,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12762360" cy="8388360"/>
+          <a:ext cx="12989880" cy="8387280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2320,9 +2326,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>827640</xdr:colOff>
+      <xdr:colOff>826560</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2332,7 +2338,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12762360" cy="8388360"/>
+          <a:ext cx="12989880" cy="8387280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2362,9 +2368,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>827640</xdr:colOff>
+      <xdr:colOff>826560</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2374,7 +2380,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12762360" cy="8388360"/>
+          <a:ext cx="12989880" cy="8387280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2404,9 +2410,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>770760</xdr:colOff>
+      <xdr:colOff>769680</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2416,7 +2422,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12705480" cy="8550720"/>
+          <a:ext cx="12933000" cy="8549640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2449,9 +2455,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>770760</xdr:colOff>
+      <xdr:colOff>769680</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2461,7 +2467,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12705480" cy="8550720"/>
+          <a:ext cx="12933000" cy="8549640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2494,9 +2500,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>770760</xdr:colOff>
+      <xdr:colOff>769680</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2506,7 +2512,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12705480" cy="8550720"/>
+          <a:ext cx="12933000" cy="8549640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2544,9 +2550,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>827280</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>826200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2556,7 +2562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12762000" cy="9523440"/>
+          <a:ext cx="12989520" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2586,9 +2592,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>827280</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>826200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2598,7 +2604,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12762000" cy="9523440"/>
+          <a:ext cx="12989520" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2628,9 +2634,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>827280</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>826200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2640,7 +2646,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12762000" cy="9523440"/>
+          <a:ext cx="12989520" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2670,9 +2676,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>770400</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>189360</xdr:rowOff>
+      <xdr:colOff>769320</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2682,7 +2688,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12705120" cy="9523800"/>
+          <a:ext cx="12932640" cy="9522720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2715,9 +2721,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>770400</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>189360</xdr:rowOff>
+      <xdr:colOff>769320</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2733,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12705120" cy="9523800"/>
+          <a:ext cx="12932640" cy="9522720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2760,9 +2766,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>770400</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>189360</xdr:rowOff>
+      <xdr:colOff>769320</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2772,7 +2778,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12705120" cy="9523800"/>
+          <a:ext cx="12932640" cy="9522720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2810,9 +2816,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>827280</xdr:colOff>
+      <xdr:colOff>826200</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2822,7 +2828,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12762000" cy="9523440"/>
+          <a:ext cx="12989520" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2852,9 +2858,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>827280</xdr:colOff>
+      <xdr:colOff>826200</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2864,7 +2870,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12762000" cy="9523440"/>
+          <a:ext cx="12989520" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2894,9 +2900,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>827280</xdr:colOff>
+      <xdr:colOff>826200</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2906,7 +2912,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12762000" cy="9523440"/>
+          <a:ext cx="12989520" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2936,9 +2942,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>770400</xdr:colOff>
+      <xdr:colOff>769320</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189360</xdr:rowOff>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2948,7 +2954,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12705120" cy="9523800"/>
+          <a:ext cx="12932640" cy="9522720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2981,9 +2987,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>770400</xdr:colOff>
+      <xdr:colOff>769320</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189360</xdr:rowOff>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2993,7 +2999,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12705120" cy="9523800"/>
+          <a:ext cx="12932640" cy="9522720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3026,9 +3032,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>770400</xdr:colOff>
+      <xdr:colOff>769320</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189360</xdr:rowOff>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3038,7 +3044,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12705120" cy="9523800"/>
+          <a:ext cx="12932640" cy="9522720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3076,9 +3082,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>827280</xdr:colOff>
+      <xdr:colOff>826200</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3088,7 +3094,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12762000" cy="9523440"/>
+          <a:ext cx="12989520" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3118,9 +3124,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>827280</xdr:colOff>
+      <xdr:colOff>826200</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3130,7 +3136,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12762000" cy="9523440"/>
+          <a:ext cx="12989520" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3160,9 +3166,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>827280</xdr:colOff>
+      <xdr:colOff>826200</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3172,7 +3178,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12762000" cy="9523440"/>
+          <a:ext cx="12989520" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3202,9 +3208,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>770400</xdr:colOff>
+      <xdr:colOff>769320</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189360</xdr:rowOff>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3214,7 +3220,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12705120" cy="9523800"/>
+          <a:ext cx="12932640" cy="9522720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3247,9 +3253,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>770400</xdr:colOff>
+      <xdr:colOff>769320</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189360</xdr:rowOff>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3259,7 +3265,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12705120" cy="9523800"/>
+          <a:ext cx="12932640" cy="9522720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3292,9 +3298,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>770400</xdr:colOff>
+      <xdr:colOff>769320</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189360</xdr:rowOff>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3304,7 +3310,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12705120" cy="9523800"/>
+          <a:ext cx="12932640" cy="9522720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3342,9 +3348,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>827280</xdr:colOff>
+      <xdr:colOff>826200</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3354,7 +3360,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12762000" cy="9523440"/>
+          <a:ext cx="12989520" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3384,9 +3390,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>827280</xdr:colOff>
+      <xdr:colOff>826200</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3396,7 +3402,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12762000" cy="9523440"/>
+          <a:ext cx="12989520" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3426,9 +3432,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>827280</xdr:colOff>
+      <xdr:colOff>826200</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3438,7 +3444,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12762000" cy="9523440"/>
+          <a:ext cx="12989520" cy="9522360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3468,9 +3474,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>770400</xdr:colOff>
+      <xdr:colOff>769320</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189360</xdr:rowOff>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3480,7 +3486,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12705120" cy="9523800"/>
+          <a:ext cx="12932640" cy="9522720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3513,9 +3519,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>770400</xdr:colOff>
+      <xdr:colOff>769320</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189360</xdr:rowOff>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3525,7 +3531,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12705120" cy="9523800"/>
+          <a:ext cx="12932640" cy="9522720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3558,9 +3564,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>770400</xdr:colOff>
+      <xdr:colOff>769320</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189360</xdr:rowOff>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3570,7 +3576,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12705120" cy="9523800"/>
+          <a:ext cx="12932640" cy="9522720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3632,19 +3638,19 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="20" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.5627530364373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="20" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
@@ -3911,23 +3917,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -4418,7 +4424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="s">
         <v>33</v>
       </c>
@@ -4453,7 +4459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="25" t="s">
         <v>33</v>
       </c>
@@ -4488,6 +4494,8 @@
         <v>14</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4504,23 +4512,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:16"/>
+  <dimension ref="1:19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5011,7 +5019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="s">
         <v>33</v>
       </c>
@@ -5046,7 +5054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="25" t="s">
         <v>33</v>
       </c>
@@ -5081,6 +5089,8 @@
         <v>14</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5105,15 +5115,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -5422,15 +5432,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.3157894736842"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.3846153846154"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -5704,15 +5714,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5985,15 +5995,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="38" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="38" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="33.5263157894737"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -6795,15 +6805,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7603,15 +7613,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8341,15 +8351,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -9079,15 +9089,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -9645,20 +9655,20 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -9872,7 +9882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -9892,10 +9902,10 @@
         <v>101</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="I7" s="40" t="n">
         <v>0.02</v>
@@ -10283,15 +10293,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -10881,15 +10891,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="48" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -11479,15 +11489,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12077,15 +12087,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12603,15 +12613,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12884,15 +12894,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13166,15 +13176,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -13414,15 +13424,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13661,15 +13671,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13978,15 +13988,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/CCRU/Data/KPIs_2019/Gaps Guide 2019.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/Gaps Guide 2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="rules" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,9 +15,9 @@
     <sheet name="PoS 2019 - FT NS - REG" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="PoS 2019 - IC HoReCa RestCafeTea" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="PoS 2019 - IC HoReCa BarTavernClub" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="PoS 2019 - Cinema - CAP " sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="PoS 2019 - Cinema - REG " sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="PoS 2019 - FastFood " sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="PoS 2019 - IC Cinema - CAP" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="PoS 2019 - IC Cinema - REG" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="PoS 2019 - IC FastFood" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="PoS 2019 - IC Petroleum - CAP" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="PoS 2019 - IC Petroleum - REG" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="PoS 2019 - IC QSR" sheetId="13" state="visible" r:id="rId14"/>
@@ -1318,9 +1318,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>286200</xdr:colOff>
+      <xdr:colOff>285480</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1334,7 +1334,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17888400" cy="2218320"/>
+          <a:ext cx="17887680" cy="2217600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1360,9 +1360,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>501120</xdr:colOff>
+      <xdr:colOff>500400</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1372,7 +1372,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13397760" cy="9875160"/>
+          <a:ext cx="13597200" cy="9874440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1402,9 +1402,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>501120</xdr:colOff>
+      <xdr:colOff>500400</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1414,7 +1414,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13397760" cy="9875160"/>
+          <a:ext cx="13597200" cy="9874440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1444,9 +1444,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>501120</xdr:colOff>
+      <xdr:colOff>500400</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1456,7 +1456,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13397760" cy="9875160"/>
+          <a:ext cx="13597200" cy="9874440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1486,9 +1486,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>293040</xdr:colOff>
+      <xdr:colOff>292320</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1498,7 +1498,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9381600"/>
+          <a:ext cx="13389120" cy="9380880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1528,9 +1528,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>293040</xdr:colOff>
+      <xdr:colOff>292320</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1540,7 +1540,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9381600"/>
+          <a:ext cx="13389120" cy="9380880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1570,9 +1570,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>293040</xdr:colOff>
+      <xdr:colOff>292320</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1582,7 +1582,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13189680" cy="9381600"/>
+          <a:ext cx="13389120" cy="9380880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1612,9 +1612,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>236160</xdr:colOff>
+      <xdr:colOff>235440</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1624,7 +1624,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13132800" cy="9381960"/>
+          <a:ext cx="13332240" cy="9381240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1657,9 +1657,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>236160</xdr:colOff>
+      <xdr:colOff>235440</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1669,7 +1669,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13132800" cy="9381960"/>
+          <a:ext cx="13332240" cy="9381240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1702,9 +1702,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>236160</xdr:colOff>
+      <xdr:colOff>235440</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1714,7 +1714,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13132800" cy="9381960"/>
+          <a:ext cx="13332240" cy="9381240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1752,9 +1752,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>826560</xdr:colOff>
+      <xdr:colOff>825840</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1764,7 +1764,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12989880" cy="8605440"/>
+          <a:ext cx="13141440" cy="8604720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1794,9 +1794,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>826560</xdr:colOff>
+      <xdr:colOff>825840</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1806,7 +1806,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12989880" cy="8605440"/>
+          <a:ext cx="13141440" cy="8604720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1836,9 +1836,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>826560</xdr:colOff>
+      <xdr:colOff>825840</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1848,7 +1848,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12989880" cy="8605440"/>
+          <a:ext cx="13141440" cy="8604720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1878,9 +1878,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>769680</xdr:colOff>
+      <xdr:colOff>768960</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1890,7 +1890,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12933000" cy="8443440"/>
+          <a:ext cx="13084560" cy="8442720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1923,9 +1923,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>769680</xdr:colOff>
+      <xdr:colOff>768960</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1935,7 +1935,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12933000" cy="8443440"/>
+          <a:ext cx="13084560" cy="8442720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1968,9 +1968,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>769680</xdr:colOff>
+      <xdr:colOff>768960</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1980,7 +1980,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12933000" cy="8443440"/>
+          <a:ext cx="13084560" cy="8442720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2018,9 +2018,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>826560</xdr:colOff>
+      <xdr:colOff>825840</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2030,7 +2030,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12989880" cy="8387280"/>
+          <a:ext cx="13141440" cy="8386560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2060,9 +2060,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>826560</xdr:colOff>
+      <xdr:colOff>825840</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2072,7 +2072,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12989880" cy="8387280"/>
+          <a:ext cx="13141440" cy="8386560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2102,9 +2102,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>826560</xdr:colOff>
+      <xdr:colOff>825840</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2114,7 +2114,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12989880" cy="8387280"/>
+          <a:ext cx="13141440" cy="8386560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2144,9 +2144,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>769680</xdr:colOff>
+      <xdr:colOff>768960</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2156,7 +2156,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12933000" cy="8549640"/>
+          <a:ext cx="13084560" cy="8548920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2189,9 +2189,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>769680</xdr:colOff>
+      <xdr:colOff>768960</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2201,7 +2201,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12933000" cy="8549640"/>
+          <a:ext cx="13084560" cy="8548920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2234,9 +2234,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>769680</xdr:colOff>
+      <xdr:colOff>768960</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2246,7 +2246,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12933000" cy="8549640"/>
+          <a:ext cx="13084560" cy="8548920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2284,9 +2284,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>826560</xdr:colOff>
+      <xdr:colOff>825840</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2296,7 +2296,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12989880" cy="8387280"/>
+          <a:ext cx="13141440" cy="8386560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2326,9 +2326,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>826560</xdr:colOff>
+      <xdr:colOff>825840</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2338,7 +2338,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12989880" cy="8387280"/>
+          <a:ext cx="13141440" cy="8386560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2368,9 +2368,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>826560</xdr:colOff>
+      <xdr:colOff>825840</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2380,7 +2380,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12989880" cy="8387280"/>
+          <a:ext cx="13141440" cy="8386560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2410,9 +2410,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>769680</xdr:colOff>
+      <xdr:colOff>768960</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2422,7 +2422,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12933000" cy="8549640"/>
+          <a:ext cx="13084560" cy="8548920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2455,9 +2455,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>769680</xdr:colOff>
+      <xdr:colOff>768960</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2467,7 +2467,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12933000" cy="8549640"/>
+          <a:ext cx="13084560" cy="8548920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2500,9 +2500,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>769680</xdr:colOff>
+      <xdr:colOff>768960</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2512,7 +2512,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12933000" cy="8549640"/>
+          <a:ext cx="13084560" cy="8548920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2550,9 +2550,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>826200</xdr:colOff>
+      <xdr:colOff>825480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2562,7 +2562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12989520" cy="9522360"/>
+          <a:ext cx="13141080" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2592,9 +2592,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>826200</xdr:colOff>
+      <xdr:colOff>825480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2604,7 +2604,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12989520" cy="9522360"/>
+          <a:ext cx="13141080" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2634,9 +2634,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>826200</xdr:colOff>
+      <xdr:colOff>825480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2646,7 +2646,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12989520" cy="9522360"/>
+          <a:ext cx="13141080" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2676,9 +2676,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>769320</xdr:colOff>
+      <xdr:colOff>768600</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2688,7 +2688,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12932640" cy="9522720"/>
+          <a:ext cx="13084200" cy="9522000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2721,9 +2721,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>769320</xdr:colOff>
+      <xdr:colOff>768600</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2733,7 +2733,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12932640" cy="9522720"/>
+          <a:ext cx="13084200" cy="9522000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2766,9 +2766,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>769320</xdr:colOff>
+      <xdr:colOff>768600</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2778,7 +2778,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12932640" cy="9522720"/>
+          <a:ext cx="13084200" cy="9522000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2816,9 +2816,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>826200</xdr:colOff>
+      <xdr:colOff>825480</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187920</xdr:rowOff>
+      <xdr:rowOff>187200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2828,7 +2828,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12989520" cy="9522360"/>
+          <a:ext cx="13141080" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2858,9 +2858,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>826200</xdr:colOff>
+      <xdr:colOff>825480</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187920</xdr:rowOff>
+      <xdr:rowOff>187200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2870,7 +2870,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12989520" cy="9522360"/>
+          <a:ext cx="13141080" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2900,9 +2900,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>826200</xdr:colOff>
+      <xdr:colOff>825480</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187920</xdr:rowOff>
+      <xdr:rowOff>187200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2912,7 +2912,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12989520" cy="9522360"/>
+          <a:ext cx="13141080" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2942,9 +2942,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>769320</xdr:colOff>
+      <xdr:colOff>768600</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2954,7 +2954,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12932640" cy="9522720"/>
+          <a:ext cx="13084200" cy="9522000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2987,9 +2987,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>769320</xdr:colOff>
+      <xdr:colOff>768600</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2999,7 +2999,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12932640" cy="9522720"/>
+          <a:ext cx="13084200" cy="9522000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3032,9 +3032,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>769320</xdr:colOff>
+      <xdr:colOff>768600</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3044,7 +3044,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12932640" cy="9522720"/>
+          <a:ext cx="13084200" cy="9522000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3082,9 +3082,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>826200</xdr:colOff>
+      <xdr:colOff>825480</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187920</xdr:rowOff>
+      <xdr:rowOff>187200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3094,7 +3094,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12989520" cy="9522360"/>
+          <a:ext cx="13141080" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3124,9 +3124,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>826200</xdr:colOff>
+      <xdr:colOff>825480</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187920</xdr:rowOff>
+      <xdr:rowOff>187200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3136,7 +3136,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12989520" cy="9522360"/>
+          <a:ext cx="13141080" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3166,9 +3166,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>826200</xdr:colOff>
+      <xdr:colOff>825480</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187920</xdr:rowOff>
+      <xdr:rowOff>187200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3178,7 +3178,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12989520" cy="9522360"/>
+          <a:ext cx="13141080" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3208,9 +3208,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>769320</xdr:colOff>
+      <xdr:colOff>768600</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3220,7 +3220,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12932640" cy="9522720"/>
+          <a:ext cx="13084200" cy="9522000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3253,9 +3253,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>769320</xdr:colOff>
+      <xdr:colOff>768600</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3265,7 +3265,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12932640" cy="9522720"/>
+          <a:ext cx="13084200" cy="9522000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3298,9 +3298,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>769320</xdr:colOff>
+      <xdr:colOff>768600</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3310,7 +3310,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12932640" cy="9522720"/>
+          <a:ext cx="13084200" cy="9522000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3348,9 +3348,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>826200</xdr:colOff>
+      <xdr:colOff>825480</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187920</xdr:rowOff>
+      <xdr:rowOff>187200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3360,7 +3360,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12989520" cy="9522360"/>
+          <a:ext cx="13141080" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3390,9 +3390,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>826200</xdr:colOff>
+      <xdr:colOff>825480</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187920</xdr:rowOff>
+      <xdr:rowOff>187200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3402,7 +3402,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12989520" cy="9522360"/>
+          <a:ext cx="13141080" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3432,9 +3432,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>826200</xdr:colOff>
+      <xdr:colOff>825480</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187920</xdr:rowOff>
+      <xdr:rowOff>187200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3444,7 +3444,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12989520" cy="9522360"/>
+          <a:ext cx="13141080" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3474,9 +3474,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>769320</xdr:colOff>
+      <xdr:colOff>768600</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3486,7 +3486,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12932640" cy="9522720"/>
+          <a:ext cx="13084200" cy="9522000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3519,9 +3519,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>769320</xdr:colOff>
+      <xdr:colOff>768600</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3531,7 +3531,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12932640" cy="9522720"/>
+          <a:ext cx="13084200" cy="9522000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3564,9 +3564,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>769320</xdr:colOff>
+      <xdr:colOff>768600</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3576,7 +3576,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12932640" cy="9522720"/>
+          <a:ext cx="13084200" cy="9522000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3638,19 +3638,19 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="20" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.2024291497976"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="20" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
@@ -3925,15 +3925,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.5991902834008"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -4514,21 +4514,21 @@
   </sheetPr>
   <dimension ref="1:19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5115,15 +5115,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.5991902834008"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -5432,15 +5432,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.9595141700405"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -5714,15 +5714,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5995,15 +5995,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="33.5263157894737"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="38" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="34.17004048583"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -6805,15 +6805,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7613,15 +7613,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8351,15 +8351,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -9089,15 +9089,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.5991902834008"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -9660,15 +9660,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -10293,15 +10293,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -10891,15 +10891,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.5263157894737"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="48" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -11489,15 +11489,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.5263157894737"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12087,15 +12087,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12613,15 +12613,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12894,15 +12894,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="12" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13170,21 +13170,21 @@
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.5991902834008"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -13424,15 +13424,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13671,15 +13671,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13988,15 +13988,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/CCRU/Data/KPIs_2019/Gaps Guide 2019.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/Gaps Guide 2019.xlsx
@@ -33,7 +33,7 @@
     <sheet name="PoS 2019 - MT Conv Small - REG" sheetId="23" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">'PoS 2019 - MT Hypermarket - CAP'!$1:$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">'PoS 2019 - MT Hypermarket - CAP'!$1:$21</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase" vbProcedure="false">'PoS 2019 - MT Supermarket - CAP'!$A$1:$K$20</definedName>
     <definedName function="false" hidden="false" localSheetId="19" name="_xlnm._FilterDatabase" vbProcedure="false">'PoS 2019 - MT Conv Big - CAP'!$A$1:$K$17</definedName>
   </definedNames>
@@ -495,7 +495,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="127">
   <si>
     <t xml:space="preserve">Gap Category Rus</t>
   </si>
@@ -662,12 +662,6 @@
     <t xml:space="preserve">Активация Стола</t>
   </si>
   <si>
-    <t xml:space="preserve">Any Other Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Другие активации</t>
-  </si>
-  <si>
     <t xml:space="preserve">Видимый ХО</t>
   </si>
   <si>
@@ -800,16 +794,10 @@
     <t xml:space="preserve">SSD Display 2d</t>
   </si>
   <si>
-    <t xml:space="preserve">NCB Displays</t>
+    <t xml:space="preserve">Water  Displays</t>
   </si>
   <si>
-    <t xml:space="preserve">Сок Дисплей 2-й</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Display 2nd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water  Displays</t>
+    <t xml:space="preserve">NCB Displays</t>
   </si>
   <si>
     <t xml:space="preserve">NCB Дисплей </t>
@@ -1318,9 +1306,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>285480</xdr:colOff>
+      <xdr:colOff>285120</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1334,7 +1322,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17887680" cy="2217600"/>
+          <a:ext cx="17887320" cy="2217240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1361,8 +1349,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>500400</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>147600</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>147240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1372,7 +1360,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13597200" cy="9874440"/>
+          <a:ext cx="13692240" cy="9621360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1403,8 +1391,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>500400</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>147600</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>147240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1414,7 +1402,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13597200" cy="9874440"/>
+          <a:ext cx="13692240" cy="9621360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1445,8 +1433,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>500400</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>147600</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>147240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1456,7 +1444,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13597200" cy="9874440"/>
+          <a:ext cx="13692240" cy="9621360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1487,7 +1475,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>292320</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>35280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1498,7 +1486,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13389120" cy="9380880"/>
+          <a:ext cx="13484160" cy="9128160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1529,7 +1517,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>292320</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>35280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1540,7 +1528,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13389120" cy="9380880"/>
+          <a:ext cx="13484160" cy="9128160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1571,7 +1559,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>292320</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>35280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1582,7 +1570,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13389120" cy="9380880"/>
+          <a:ext cx="13484160" cy="9128160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1613,7 +1601,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>235440</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1624,7 +1612,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13332240" cy="9381240"/>
+          <a:ext cx="13427280" cy="9128520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1658,7 +1646,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>235440</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1669,7 +1657,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13332240" cy="9381240"/>
+          <a:ext cx="13427280" cy="9128520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1703,7 +1691,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>235440</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1714,7 +1702,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13332240" cy="9381240"/>
+          <a:ext cx="13427280" cy="9128520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1752,8 +1740,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825840</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:colOff>825480</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1764,7 +1752,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13141440" cy="8604720"/>
+          <a:ext cx="13217400" cy="8414280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1794,8 +1782,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825840</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:colOff>825480</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1806,7 +1794,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13141440" cy="8604720"/>
+          <a:ext cx="13217400" cy="8414280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1836,8 +1824,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825840</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:colOff>825480</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1848,7 +1836,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13141440" cy="8604720"/>
+          <a:ext cx="13217400" cy="8414280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1878,8 +1866,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768960</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:colOff>768600</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1890,7 +1878,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13084560" cy="8442720"/>
+          <a:ext cx="13160520" cy="8251920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1923,8 +1911,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768960</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:colOff>768600</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1935,7 +1923,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13084560" cy="8442720"/>
+          <a:ext cx="13160520" cy="8251920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1968,8 +1956,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768960</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:colOff>768600</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1980,7 +1968,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13084560" cy="8442720"/>
+          <a:ext cx="13160520" cy="8251920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2018,9 +2006,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825840</xdr:colOff>
+      <xdr:colOff>825480</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2030,7 +2018,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13141440" cy="8386560"/>
+          <a:ext cx="13217400" cy="8386200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2060,9 +2048,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825840</xdr:colOff>
+      <xdr:colOff>825480</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2072,7 +2060,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13141440" cy="8386560"/>
+          <a:ext cx="13217400" cy="8386200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2102,9 +2090,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825840</xdr:colOff>
+      <xdr:colOff>825480</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2114,7 +2102,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13141440" cy="8386560"/>
+          <a:ext cx="13217400" cy="8386200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2144,9 +2132,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768960</xdr:colOff>
+      <xdr:colOff>768600</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2156,7 +2144,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13084560" cy="8548920"/>
+          <a:ext cx="13160520" cy="8548560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2189,9 +2177,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768960</xdr:colOff>
+      <xdr:colOff>768600</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2201,7 +2189,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13084560" cy="8548920"/>
+          <a:ext cx="13160520" cy="8548560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2234,9 +2222,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768960</xdr:colOff>
+      <xdr:colOff>768600</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2246,7 +2234,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13084560" cy="8548920"/>
+          <a:ext cx="13160520" cy="8548560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2284,9 +2272,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825840</xdr:colOff>
+      <xdr:colOff>825480</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2296,7 +2284,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13141440" cy="8386560"/>
+          <a:ext cx="13217400" cy="8386200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2326,9 +2314,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825840</xdr:colOff>
+      <xdr:colOff>825480</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2338,7 +2326,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13141440" cy="8386560"/>
+          <a:ext cx="13217400" cy="8386200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2368,9 +2356,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825840</xdr:colOff>
+      <xdr:colOff>825480</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2380,7 +2368,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13141440" cy="8386560"/>
+          <a:ext cx="13217400" cy="8386200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2410,9 +2398,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768960</xdr:colOff>
+      <xdr:colOff>768600</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2422,7 +2410,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13084560" cy="8548920"/>
+          <a:ext cx="13160520" cy="8548560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2455,9 +2443,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768960</xdr:colOff>
+      <xdr:colOff>768600</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2467,7 +2455,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13084560" cy="8548920"/>
+          <a:ext cx="13160520" cy="8548560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2500,9 +2488,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768960</xdr:colOff>
+      <xdr:colOff>768600</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2512,7 +2500,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13084560" cy="8548920"/>
+          <a:ext cx="13160520" cy="8548560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2550,9 +2538,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825480</xdr:colOff>
+      <xdr:colOff>825120</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2562,7 +2550,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13141080" cy="9521640"/>
+          <a:ext cx="13217040" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2592,9 +2580,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825480</xdr:colOff>
+      <xdr:colOff>825120</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2604,7 +2592,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13141080" cy="9521640"/>
+          <a:ext cx="13217040" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2634,9 +2622,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825480</xdr:colOff>
+      <xdr:colOff>825120</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2646,7 +2634,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13141080" cy="9521640"/>
+          <a:ext cx="13217040" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2676,9 +2664,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768600</xdr:colOff>
+      <xdr:colOff>768240</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2688,7 +2676,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13084200" cy="9522000"/>
+          <a:ext cx="13160160" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2721,9 +2709,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768600</xdr:colOff>
+      <xdr:colOff>768240</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2733,7 +2721,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13084200" cy="9522000"/>
+          <a:ext cx="13160160" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2766,9 +2754,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768600</xdr:colOff>
+      <xdr:colOff>768240</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2778,7 +2766,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13084200" cy="9522000"/>
+          <a:ext cx="13160160" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2816,9 +2804,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825480</xdr:colOff>
+      <xdr:colOff>825120</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187200</xdr:rowOff>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2828,7 +2816,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13141080" cy="9521640"/>
+          <a:ext cx="13217040" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2858,9 +2846,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825480</xdr:colOff>
+      <xdr:colOff>825120</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187200</xdr:rowOff>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2870,7 +2858,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13141080" cy="9521640"/>
+          <a:ext cx="13217040" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2900,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825480</xdr:colOff>
+      <xdr:colOff>825120</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187200</xdr:rowOff>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2912,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13141080" cy="9521640"/>
+          <a:ext cx="13217040" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2942,9 +2930,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768600</xdr:colOff>
+      <xdr:colOff>768240</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:rowOff>187200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2954,7 +2942,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13084200" cy="9522000"/>
+          <a:ext cx="13160160" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2987,9 +2975,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768600</xdr:colOff>
+      <xdr:colOff>768240</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:rowOff>187200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2999,7 +2987,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13084200" cy="9522000"/>
+          <a:ext cx="13160160" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3032,9 +3020,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768600</xdr:colOff>
+      <xdr:colOff>768240</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:rowOff>187200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3044,7 +3032,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13084200" cy="9522000"/>
+          <a:ext cx="13160160" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3082,9 +3070,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825480</xdr:colOff>
+      <xdr:colOff>825120</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187200</xdr:rowOff>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3094,7 +3082,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13141080" cy="9521640"/>
+          <a:ext cx="13217040" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3124,9 +3112,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825480</xdr:colOff>
+      <xdr:colOff>825120</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187200</xdr:rowOff>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3136,7 +3124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13141080" cy="9521640"/>
+          <a:ext cx="13217040" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3166,9 +3154,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825480</xdr:colOff>
+      <xdr:colOff>825120</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187200</xdr:rowOff>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3178,7 +3166,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13141080" cy="9521640"/>
+          <a:ext cx="13217040" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3208,9 +3196,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768600</xdr:colOff>
+      <xdr:colOff>768240</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:rowOff>187200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3220,7 +3208,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13084200" cy="9522000"/>
+          <a:ext cx="13160160" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3253,9 +3241,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768600</xdr:colOff>
+      <xdr:colOff>768240</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:rowOff>187200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3265,7 +3253,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13084200" cy="9522000"/>
+          <a:ext cx="13160160" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3298,9 +3286,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768600</xdr:colOff>
+      <xdr:colOff>768240</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:rowOff>187200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3310,7 +3298,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13084200" cy="9522000"/>
+          <a:ext cx="13160160" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3348,9 +3336,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825480</xdr:colOff>
+      <xdr:colOff>825120</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187200</xdr:rowOff>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3360,7 +3348,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13141080" cy="9521640"/>
+          <a:ext cx="13217040" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3390,9 +3378,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825480</xdr:colOff>
+      <xdr:colOff>825120</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187200</xdr:rowOff>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3402,7 +3390,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13141080" cy="9521640"/>
+          <a:ext cx="13217040" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3432,9 +3420,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825480</xdr:colOff>
+      <xdr:colOff>825120</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187200</xdr:rowOff>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3444,7 +3432,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13141080" cy="9521640"/>
+          <a:ext cx="13217040" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3474,9 +3462,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768600</xdr:colOff>
+      <xdr:colOff>768240</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:rowOff>187200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3486,7 +3474,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13084200" cy="9522000"/>
+          <a:ext cx="13160160" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3519,9 +3507,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768600</xdr:colOff>
+      <xdr:colOff>768240</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:rowOff>187200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3531,7 +3519,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13084200" cy="9522000"/>
+          <a:ext cx="13160160" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3564,9 +3552,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768600</xdr:colOff>
+      <xdr:colOff>768240</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:rowOff>187200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3576,7 +3564,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13084200" cy="9522000"/>
+          <a:ext cx="13160160" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3644,13 +3632,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.2024291497976"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="20" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.6315789473684"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="20" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
@@ -3711,7 +3699,7 @@
         <v>49</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>49</v>
@@ -3740,16 +3728,16 @@
         <v>48</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I3" s="18" t="n">
         <v>0.28</v>
@@ -3925,15 +3913,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="21" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -3987,16 +3975,16 @@
         <v>48</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I2" s="24" t="n">
         <v>0.0425</v>
@@ -4022,16 +4010,16 @@
         <v>48</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I3" s="27" t="n">
         <v>0.025</v>
@@ -4055,16 +4043,16 @@
         <v>48</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I4" s="27" t="n">
         <v>0.0175</v>
@@ -4088,16 +4076,16 @@
         <v>22</v>
       </c>
       <c r="E5" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="28" t="s">
         <v>67</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>69</v>
       </c>
       <c r="I5" s="24" t="n">
         <v>0.0425</v>
@@ -4123,16 +4111,16 @@
         <v>22</v>
       </c>
       <c r="E6" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>70</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="I6" s="24" t="n">
         <v>0.0425</v>
@@ -4158,16 +4146,16 @@
         <v>22</v>
       </c>
       <c r="E7" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="28" t="s">
         <v>73</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>75</v>
       </c>
       <c r="I7" s="24" t="n">
         <v>0.0425</v>
@@ -4327,22 +4315,22 @@
         <v>34</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="28" t="s">
         <v>76</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>78</v>
       </c>
       <c r="I12" s="29" t="n">
         <v>0.02</v>
@@ -4362,22 +4350,22 @@
         <v>34</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I13" s="29" t="n">
         <v>0.025</v>
@@ -4397,22 +4385,22 @@
         <v>34</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I14" s="29" t="n">
         <v>0.025</v>
@@ -4432,22 +4420,22 @@
         <v>34</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I15" s="30" t="n">
         <v>0.02</v>
@@ -4467,22 +4455,22 @@
         <v>34</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I16" s="30" t="n">
         <v>0.03</v>
@@ -4520,15 +4508,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -4581,16 +4569,16 @@
         <v>48</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I2" s="24" t="n">
         <v>0.0425</v>
@@ -4617,16 +4605,16 @@
         <v>48</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I3" s="27" t="n">
         <v>0.025</v>
@@ -4650,16 +4638,16 @@
         <v>48</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I4" s="27" t="n">
         <v>0.0175</v>
@@ -4683,16 +4671,16 @@
         <v>22</v>
       </c>
       <c r="E5" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="28" t="s">
         <v>67</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>69</v>
       </c>
       <c r="I5" s="24" t="n">
         <v>0.0425</v>
@@ -4718,16 +4706,16 @@
         <v>22</v>
       </c>
       <c r="E6" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>70</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="I6" s="24" t="n">
         <v>0.0425</v>
@@ -4753,16 +4741,16 @@
         <v>22</v>
       </c>
       <c r="E7" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="28" t="s">
         <v>73</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>75</v>
       </c>
       <c r="I7" s="24" t="n">
         <v>0.0425</v>
@@ -4922,22 +4910,22 @@
         <v>34</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="28" t="s">
         <v>76</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>78</v>
       </c>
       <c r="I12" s="29" t="n">
         <v>0.02</v>
@@ -4957,22 +4945,22 @@
         <v>34</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I13" s="29" t="n">
         <v>0.025</v>
@@ -4992,22 +4980,22 @@
         <v>34</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I14" s="29" t="n">
         <v>0.025</v>
@@ -5027,22 +5015,22 @@
         <v>34</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I15" s="30" t="n">
         <v>0.02</v>
@@ -5062,22 +5050,22 @@
         <v>34</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I16" s="30" t="n">
         <v>0.03</v>
@@ -5115,15 +5103,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -5212,16 +5200,16 @@
         <v>48</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I3" s="32" t="n">
         <v>0.28</v>
@@ -5247,16 +5235,16 @@
         <v>48</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I4" s="31" t="n">
         <v>0.07</v>
@@ -5432,15 +5420,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -5494,16 +5482,16 @@
         <v>48</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I2" s="35" t="n">
         <v>0.09</v>
@@ -5529,16 +5517,16 @@
         <v>48</v>
       </c>
       <c r="E3" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>89</v>
-      </c>
       <c r="H3" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I3" s="36" t="n">
         <v>0.01</v>
@@ -5714,15 +5702,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5775,16 +5763,16 @@
         <v>48</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I2" s="35" t="n">
         <v>0.09</v>
@@ -5810,16 +5798,16 @@
         <v>48</v>
       </c>
       <c r="E3" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>89</v>
-      </c>
       <c r="H3" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I3" s="36" t="n">
         <v>0.01</v>
@@ -5990,20 +5978,20 @@
   <dimension ref="A1:K65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="33.8502024291498"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="38" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="34.4939271255061"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -6063,10 +6051,10 @@
         <v>14</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I2" s="40" t="n">
         <v>0.04</v>
@@ -6098,10 +6086,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I3" s="40" t="n">
         <v>0.01</v>
@@ -6127,16 +6115,16 @@
         <v>13</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="I4" s="40" t="n">
         <v>0.02</v>
@@ -6162,16 +6150,16 @@
         <v>13</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I5" s="40" t="n">
         <v>0.01</v>
@@ -6203,10 +6191,10 @@
         <v>14</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I6" s="42" t="n">
         <v>0.035</v>
@@ -6232,25 +6220,25 @@
         <v>13</v>
       </c>
       <c r="E7" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="28" t="s">
+      <c r="H7" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="28" t="s">
-        <v>103</v>
-      </c>
       <c r="I7" s="42" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="J7" s="9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K7" s="9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6267,25 +6255,25 @@
         <v>13</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>106</v>
-      </c>
       <c r="I8" s="42" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="J8" s="9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K8" s="9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6302,25 +6290,25 @@
         <v>13</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="G9" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I9" s="42" t="n">
-        <v>0.025</v>
+      <c r="I9" s="40" t="n">
+        <v>0.01</v>
       </c>
       <c r="J9" s="9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K9" s="9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6337,25 +6325,25 @@
         <v>13</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="H10" s="28" t="s">
         <v>110</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>111</v>
       </c>
       <c r="I10" s="40" t="n">
         <v>0.01</v>
       </c>
       <c r="J10" s="9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K10" s="9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6372,25 +6360,25 @@
         <v>13</v>
       </c>
       <c r="E11" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>113</v>
-      </c>
       <c r="H11" s="28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I11" s="40" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="J11" s="9" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K11" s="9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6401,31 +6389,31 @@
         <v>12</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="I12" s="40" t="n">
-        <v>0.03</v>
+        <v>113</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="43" t="n">
+        <v>0.0075</v>
       </c>
       <c r="J12" s="9" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K12" s="9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6442,25 +6430,25 @@
         <v>22</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I13" s="43" t="n">
         <v>0.0075</v>
       </c>
       <c r="J13" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="K13" s="9" t="n">
         <v>14</v>
-      </c>
-      <c r="K13" s="9" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6477,25 +6465,25 @@
         <v>22</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="G14" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="I14" s="43" t="n">
         <v>0.0075</v>
       </c>
       <c r="J14" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="K14" s="9" t="n">
         <v>15</v>
-      </c>
-      <c r="K14" s="9" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6512,60 +6500,60 @@
         <v>22</v>
       </c>
       <c r="E15" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="28" t="s">
+      <c r="H15" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="I15" s="43" t="n">
         <v>0.0075</v>
       </c>
       <c r="J15" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="K15" s="9" t="n">
         <v>16</v>
-      </c>
-      <c r="K15" s="9" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="I16" s="43" t="n">
-        <v>0.0075</v>
+        <v>35</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="40" t="n">
+        <v>0.065</v>
       </c>
       <c r="J16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="9" t="n">
         <v>17</v>
-      </c>
-      <c r="K16" s="9" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6581,26 +6569,26 @@
       <c r="D17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>38</v>
+      <c r="E17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="I17" s="40" t="n">
-        <v>0.065</v>
+        <v>0.01625</v>
       </c>
       <c r="J17" s="9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17" s="9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6623,19 +6611,19 @@
         <v>39</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I18" s="40" t="n">
         <v>0.01625</v>
       </c>
       <c r="J18" s="9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K18" s="9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6658,19 +6646,19 @@
         <v>39</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I19" s="40" t="n">
         <v>0.01625</v>
       </c>
       <c r="J19" s="9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K19" s="9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6693,91 +6681,57 @@
         <v>39</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I20" s="40" t="n">
         <v>0.01625</v>
       </c>
       <c r="J20" s="9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K20" s="9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="40" t="n">
-        <v>0.01625</v>
+        <v>123</v>
+      </c>
+      <c r="I21" s="43" t="n">
+        <v>0.03</v>
       </c>
       <c r="J21" s="9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K21" s="9" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="I22" s="43" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J22" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K22" s="9" t="n">
         <v>22</v>
       </c>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6797,23 +6751,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.919028340081"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6872,10 +6826,10 @@
         <v>14</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I2" s="40" t="n">
         <v>0.04</v>
@@ -6907,10 +6861,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I3" s="40" t="n">
         <v>0.01</v>
@@ -6936,16 +6890,16 @@
         <v>13</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="I4" s="40" t="n">
         <v>0.02</v>
@@ -6971,16 +6925,16 @@
         <v>13</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I5" s="40" t="n">
         <v>0.01</v>
@@ -7012,10 +6966,10 @@
         <v>14</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I6" s="42" t="n">
         <v>0.035</v>
@@ -7041,25 +6995,25 @@
         <v>13</v>
       </c>
       <c r="E7" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="28" t="s">
+      <c r="H7" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="28" t="s">
-        <v>103</v>
-      </c>
       <c r="I7" s="42" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="J7" s="9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K7" s="9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7076,25 +7030,25 @@
         <v>13</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>106</v>
-      </c>
       <c r="I8" s="42" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="J8" s="9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K8" s="9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7111,25 +7065,25 @@
         <v>13</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="G9" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I9" s="42" t="n">
-        <v>0.025</v>
+      <c r="I9" s="40" t="n">
+        <v>0.01</v>
       </c>
       <c r="J9" s="9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K9" s="9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7146,25 +7100,25 @@
         <v>13</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="H10" s="28" t="s">
         <v>110</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>111</v>
       </c>
       <c r="I10" s="40" t="n">
         <v>0.01</v>
       </c>
       <c r="J10" s="9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K10" s="9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7181,25 +7135,25 @@
         <v>13</v>
       </c>
       <c r="E11" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>113</v>
-      </c>
       <c r="H11" s="28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I11" s="40" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="J11" s="9" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K11" s="9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7210,31 +7164,31 @@
         <v>12</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="I12" s="40" t="n">
-        <v>0.03</v>
+        <v>113</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="43" t="n">
+        <v>0.0075</v>
       </c>
       <c r="J12" s="9" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K12" s="9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7251,25 +7205,25 @@
         <v>22</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I13" s="43" t="n">
         <v>0.0075</v>
       </c>
       <c r="J13" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="K13" s="9" t="n">
         <v>14</v>
-      </c>
-      <c r="K13" s="9" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7286,25 +7240,25 @@
         <v>22</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="G14" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="I14" s="43" t="n">
         <v>0.0075</v>
       </c>
       <c r="J14" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="K14" s="9" t="n">
         <v>15</v>
-      </c>
-      <c r="K14" s="9" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7321,60 +7275,60 @@
         <v>22</v>
       </c>
       <c r="E15" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="28" t="s">
+      <c r="H15" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="I15" s="43" t="n">
         <v>0.0075</v>
       </c>
       <c r="J15" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="K15" s="9" t="n">
         <v>16</v>
-      </c>
-      <c r="K15" s="9" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="I16" s="43" t="n">
-        <v>0.0075</v>
+        <v>35</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="40" t="n">
+        <v>0.065</v>
       </c>
       <c r="J16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="9" t="n">
         <v>17</v>
-      </c>
-      <c r="K16" s="9" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7390,26 +7344,26 @@
       <c r="D17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>38</v>
+      <c r="E17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="I17" s="40" t="n">
-        <v>0.065</v>
+        <v>0.01625</v>
       </c>
       <c r="J17" s="9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17" s="9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7432,19 +7386,19 @@
         <v>39</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I18" s="40" t="n">
         <v>0.01625</v>
       </c>
       <c r="J18" s="9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K18" s="9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7467,19 +7421,19 @@
         <v>39</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I19" s="40" t="n">
         <v>0.01625</v>
       </c>
       <c r="J19" s="9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K19" s="9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7502,88 +7456,53 @@
         <v>39</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I20" s="40" t="n">
         <v>0.01625</v>
       </c>
       <c r="J20" s="9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K20" s="9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="40" t="n">
-        <v>0.01625</v>
+        <v>123</v>
+      </c>
+      <c r="I21" s="43" t="n">
+        <v>0.03</v>
       </c>
       <c r="J21" s="9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K21" s="9" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="I22" s="43" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J22" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K22" s="9" t="n">
         <v>22</v>
       </c>
     </row>
@@ -7613,15 +7532,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.919028340081"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7680,10 +7599,10 @@
         <v>14</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I2" s="37" t="n">
         <v>0.045</v>
@@ -7709,16 +7628,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="41" t="s">
         <v>94</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>96</v>
       </c>
       <c r="I3" s="44" t="n">
         <v>0.03</v>
@@ -7750,10 +7669,10 @@
         <v>14</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I4" s="35" t="n">
         <v>0.04</v>
@@ -7779,16 +7698,16 @@
         <v>13</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>105</v>
-      </c>
       <c r="H5" s="34" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I5" s="44" t="n">
         <v>0.015</v>
@@ -7814,16 +7733,16 @@
         <v>13</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I6" s="45" t="n">
         <v>0.03</v>
@@ -7849,16 +7768,16 @@
         <v>48</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I7" s="46" t="n">
         <v>0.03</v>
@@ -7890,10 +7809,10 @@
         <v>14</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I8" s="35" t="n">
         <v>0.035</v>
@@ -7925,10 +7844,10 @@
         <v>14</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I9" s="40" t="n">
         <v>0.01</v>
@@ -7954,16 +7873,16 @@
         <v>13</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I10" s="40" t="n">
         <v>0.01</v>
@@ -7989,16 +7908,16 @@
         <v>13</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I11" s="42" t="n">
         <v>0.015</v>
@@ -8024,16 +7943,16 @@
         <v>22</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I12" s="43" t="n">
         <v>0.0075</v>
@@ -8059,16 +7978,16 @@
         <v>22</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I13" s="43" t="n">
         <v>0.0075</v>
@@ -8094,16 +8013,16 @@
         <v>22</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I14" s="43" t="n">
         <v>0.0075</v>
@@ -8304,16 +8223,16 @@
         <v>22</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I20" s="43" t="n">
         <v>0.0075</v>
@@ -8351,15 +8270,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.919028340081"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8418,10 +8337,10 @@
         <v>14</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I2" s="37" t="n">
         <v>0.045</v>
@@ -8447,16 +8366,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="41" t="s">
         <v>94</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>96</v>
       </c>
       <c r="I3" s="44" t="n">
         <v>0.03</v>
@@ -8488,10 +8407,10 @@
         <v>14</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I4" s="35" t="n">
         <v>0.04</v>
@@ -8517,16 +8436,16 @@
         <v>13</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>105</v>
-      </c>
       <c r="H5" s="34" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I5" s="44" t="n">
         <v>0.015</v>
@@ -8552,16 +8471,16 @@
         <v>13</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I6" s="45" t="n">
         <v>0.03</v>
@@ -8587,16 +8506,16 @@
         <v>48</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I7" s="46" t="n">
         <v>0.03</v>
@@ -8628,10 +8547,10 @@
         <v>14</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I8" s="35" t="n">
         <v>0.035</v>
@@ -8663,10 +8582,10 @@
         <v>14</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I9" s="40" t="n">
         <v>0.01</v>
@@ -8692,16 +8611,16 @@
         <v>13</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I10" s="40" t="n">
         <v>0.01</v>
@@ -8727,16 +8646,16 @@
         <v>13</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I11" s="42" t="n">
         <v>0.015</v>
@@ -8762,16 +8681,16 @@
         <v>22</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I12" s="43" t="n">
         <v>0.0075</v>
@@ -8797,16 +8716,16 @@
         <v>22</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I13" s="43" t="n">
         <v>0.0075</v>
@@ -8832,16 +8751,16 @@
         <v>22</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I14" s="43" t="n">
         <v>0.0075</v>
@@ -9042,16 +8961,16 @@
         <v>22</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I20" s="43" t="n">
         <v>0.0075</v>
@@ -9089,15 +9008,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="32.7773279352227"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -9660,15 +9579,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.919028340081"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -9727,10 +9646,10 @@
         <v>14</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I2" s="40" t="n">
         <v>0.04</v>
@@ -9756,16 +9675,16 @@
         <v>48</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I3" s="43" t="n">
         <v>0.04</v>
@@ -9791,16 +9710,16 @@
         <v>13</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="41" t="s">
         <v>94</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>96</v>
       </c>
       <c r="I4" s="37" t="n">
         <v>0.03</v>
@@ -9832,10 +9751,10 @@
         <v>14</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I5" s="37" t="n">
         <v>0.03</v>
@@ -9861,16 +9780,16 @@
         <v>13</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I6" s="40" t="n">
         <v>0.03</v>
@@ -9896,16 +9815,16 @@
         <v>13</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I7" s="40" t="n">
         <v>0.02</v>
@@ -9937,10 +9856,10 @@
         <v>14</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I8" s="40" t="n">
         <v>0.01</v>
@@ -9966,16 +9885,16 @@
         <v>22</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I9" s="43" t="n">
         <v>0.0075</v>
@@ -10001,16 +9920,16 @@
         <v>22</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I10" s="43" t="n">
         <v>0.0075</v>
@@ -10036,16 +9955,16 @@
         <v>22</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I11" s="43" t="n">
         <v>0.0075</v>
@@ -10246,16 +10165,16 @@
         <v>22</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I17" s="43" t="n">
         <v>0.0075</v>
@@ -10293,15 +10212,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -10360,10 +10279,10 @@
         <v>14</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I2" s="47" t="n">
         <v>0.05</v>
@@ -10389,16 +10308,16 @@
         <v>48</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I3" s="43" t="n">
         <v>0.04</v>
@@ -10424,16 +10343,16 @@
         <v>13</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="41" t="s">
         <v>94</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>96</v>
       </c>
       <c r="I4" s="47" t="n">
         <v>0.04</v>
@@ -10465,10 +10384,10 @@
         <v>14</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I5" s="37" t="n">
         <v>0.03</v>
@@ -10494,16 +10413,16 @@
         <v>13</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I6" s="40" t="n">
         <v>0.03</v>
@@ -10535,10 +10454,10 @@
         <v>14</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I7" s="40" t="n">
         <v>0.01</v>
@@ -10564,16 +10483,16 @@
         <v>22</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I8" s="43" t="n">
         <v>0.0075</v>
@@ -10599,16 +10518,16 @@
         <v>22</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I9" s="43" t="n">
         <v>0.0075</v>
@@ -10634,16 +10553,16 @@
         <v>22</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I10" s="43" t="n">
         <v>0.0075</v>
@@ -10844,16 +10763,16 @@
         <v>22</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I16" s="43" t="n">
         <v>0.0075</v>
@@ -10891,15 +10810,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.8502024291498"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="48" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -10958,10 +10877,10 @@
         <v>14</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I2" s="37" t="n">
         <v>0.05</v>
@@ -10987,16 +10906,16 @@
         <v>48</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I3" s="43" t="n">
         <v>0.04</v>
@@ -11022,16 +10941,16 @@
         <v>13</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="41" t="s">
         <v>94</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>96</v>
       </c>
       <c r="I4" s="49" t="n">
         <v>0.04</v>
@@ -11063,10 +10982,10 @@
         <v>14</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I5" s="37" t="n">
         <v>0.03</v>
@@ -11092,16 +11011,16 @@
         <v>13</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I6" s="40" t="n">
         <v>0.03</v>
@@ -11133,10 +11052,10 @@
         <v>14</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I7" s="40" t="n">
         <v>0.01</v>
@@ -11162,16 +11081,16 @@
         <v>22</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I8" s="43" t="n">
         <v>0.0075</v>
@@ -11197,16 +11116,16 @@
         <v>22</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I9" s="43" t="n">
         <v>0.0075</v>
@@ -11232,16 +11151,16 @@
         <v>22</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I10" s="43" t="n">
         <v>0.0075</v>
@@ -11442,16 +11361,16 @@
         <v>22</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I16" s="43" t="n">
         <v>0.0075</v>
@@ -11489,15 +11408,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.8502024291498"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -11556,10 +11475,10 @@
         <v>14</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I2" s="37" t="n">
         <v>0.05</v>
@@ -11585,16 +11504,16 @@
         <v>48</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I3" s="43" t="n">
         <v>0.04</v>
@@ -11620,16 +11539,16 @@
         <v>13</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="41" t="s">
         <v>94</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>96</v>
       </c>
       <c r="I4" s="49" t="n">
         <v>0.04</v>
@@ -11661,10 +11580,10 @@
         <v>14</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I5" s="37" t="n">
         <v>0.03</v>
@@ -11690,16 +11609,16 @@
         <v>13</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I6" s="40" t="n">
         <v>0.03</v>
@@ -11731,10 +11650,10 @@
         <v>14</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I7" s="40" t="n">
         <v>0.01</v>
@@ -11760,16 +11679,16 @@
         <v>22</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I8" s="43" t="n">
         <v>0.0075</v>
@@ -11795,16 +11714,16 @@
         <v>22</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I9" s="43" t="n">
         <v>0.0075</v>
@@ -11830,16 +11749,16 @@
         <v>22</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I10" s="43" t="n">
         <v>0.0075</v>
@@ -12040,16 +11959,16 @@
         <v>22</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I16" s="43" t="n">
         <v>0.0075</v>
@@ -12087,15 +12006,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.7773279352227"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="12" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12613,15 +12532,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="12" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12894,15 +12813,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="12" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13168,23 +13087,23 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -13331,74 +13250,40 @@
     </row>
     <row r="5" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>55</v>
-      </c>
       <c r="I5" s="14" t="n">
-        <v>0.12</v>
+        <v>0.046667</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" s="6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="14" t="n">
-        <v>0.046667</v>
-      </c>
-      <c r="J6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="6" t="n">
         <v>5</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -13416,23 +13301,23 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13578,74 +13463,40 @@
     </row>
     <row r="5" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>55</v>
-      </c>
       <c r="I5" s="14" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="J5" s="15" t="n">
-        <v>3</v>
+        <v>0.046667</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="K5" s="6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="14" t="n">
-        <v>0.046667</v>
-      </c>
-      <c r="J6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="6" t="n">
         <v>5</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -13671,15 +13522,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13732,16 +13583,16 @@
         <v>48</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I2" s="18" t="n">
         <v>0.07</v>
@@ -13802,16 +13653,16 @@
         <v>48</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I4" s="18" t="n">
         <v>0.28</v>
@@ -13988,15 +13839,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -14049,16 +13900,16 @@
         <v>48</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I2" s="18" t="n">
         <v>0.07</v>
@@ -14119,16 +13970,16 @@
         <v>48</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I4" s="18" t="n">
         <v>0.28</v>

--- a/Projects/CCRU/Data/KPIs_2019/Gaps Guide 2019.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/Gaps Guide 2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="rules" sheetId="1" state="visible" r:id="rId2"/>
@@ -1306,9 +1306,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>285120</xdr:colOff>
+      <xdr:colOff>284760</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1322,7 +1322,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17887320" cy="2217240"/>
+          <a:ext cx="17886960" cy="2216880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1348,9 +1348,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>500400</xdr:colOff>
+      <xdr:colOff>500040</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1360,7 +1360,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13692240" cy="9621360"/>
+          <a:ext cx="13787280" cy="9621000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1390,9 +1390,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>500400</xdr:colOff>
+      <xdr:colOff>500040</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1402,7 +1402,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13692240" cy="9621360"/>
+          <a:ext cx="13787280" cy="9621000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1432,9 +1432,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>500400</xdr:colOff>
+      <xdr:colOff>500040</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1444,7 +1444,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13692240" cy="9621360"/>
+          <a:ext cx="13787280" cy="9621000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1474,9 +1474,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1486,7 +1486,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13484160" cy="9128160"/>
+          <a:ext cx="13579200" cy="9127800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1516,9 +1516,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1528,7 +1528,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13484160" cy="9128160"/>
+          <a:ext cx="13579200" cy="9127800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1558,9 +1558,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1570,7 +1570,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13484160" cy="9128160"/>
+          <a:ext cx="13579200" cy="9127800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1600,9 +1600,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>235440</xdr:colOff>
+      <xdr:colOff>235080</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>35280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1612,7 +1612,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13427280" cy="9128520"/>
+          <a:ext cx="13522320" cy="9128160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1645,9 +1645,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>235440</xdr:colOff>
+      <xdr:colOff>235080</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>35280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1657,7 +1657,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13427280" cy="9128520"/>
+          <a:ext cx="13522320" cy="9128160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1690,9 +1690,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>235440</xdr:colOff>
+      <xdr:colOff>235080</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>35280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1702,7 +1702,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13427280" cy="9128520"/>
+          <a:ext cx="13522320" cy="9128160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1740,9 +1740,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825480</xdr:colOff>
+      <xdr:colOff>825120</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1752,7 +1752,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13217400" cy="8414280"/>
+          <a:ext cx="13302720" cy="8413920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1782,9 +1782,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825480</xdr:colOff>
+      <xdr:colOff>825120</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1794,7 +1794,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13217400" cy="8414280"/>
+          <a:ext cx="13302720" cy="8413920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1824,9 +1824,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825480</xdr:colOff>
+      <xdr:colOff>825120</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1836,7 +1836,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13217400" cy="8414280"/>
+          <a:ext cx="13302720" cy="8413920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1866,9 +1866,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768600</xdr:colOff>
+      <xdr:colOff>768240</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1878,7 +1878,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13160520" cy="8251920"/>
+          <a:ext cx="13245840" cy="8251560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1911,9 +1911,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768600</xdr:colOff>
+      <xdr:colOff>768240</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1923,7 +1923,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13160520" cy="8251920"/>
+          <a:ext cx="13245840" cy="8251560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1956,9 +1956,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768600</xdr:colOff>
+      <xdr:colOff>768240</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1968,7 +1968,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13160520" cy="8251920"/>
+          <a:ext cx="13245840" cy="8251560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2006,9 +2006,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825480</xdr:colOff>
+      <xdr:colOff>825120</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2018,7 +2018,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13217400" cy="8386200"/>
+          <a:ext cx="13302720" cy="8385840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2048,9 +2048,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825480</xdr:colOff>
+      <xdr:colOff>825120</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2060,7 +2060,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13217400" cy="8386200"/>
+          <a:ext cx="13302720" cy="8385840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2090,9 +2090,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825480</xdr:colOff>
+      <xdr:colOff>825120</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2102,7 +2102,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13217400" cy="8386200"/>
+          <a:ext cx="13302720" cy="8385840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2132,9 +2132,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768600</xdr:colOff>
+      <xdr:colOff>768240</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2144,7 +2144,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13160520" cy="8548560"/>
+          <a:ext cx="13245840" cy="8548200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2177,9 +2177,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768600</xdr:colOff>
+      <xdr:colOff>768240</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2189,7 +2189,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13160520" cy="8548560"/>
+          <a:ext cx="13245840" cy="8548200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2222,9 +2222,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768600</xdr:colOff>
+      <xdr:colOff>768240</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2234,7 +2234,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13160520" cy="8548560"/>
+          <a:ext cx="13245840" cy="8548200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2272,9 +2272,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825480</xdr:colOff>
+      <xdr:colOff>825120</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2284,7 +2284,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13217400" cy="8386200"/>
+          <a:ext cx="13302720" cy="8385840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2314,9 +2314,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825480</xdr:colOff>
+      <xdr:colOff>825120</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2326,7 +2326,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13217400" cy="8386200"/>
+          <a:ext cx="13302720" cy="8385840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2356,9 +2356,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825480</xdr:colOff>
+      <xdr:colOff>825120</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2368,7 +2368,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13217400" cy="8386200"/>
+          <a:ext cx="13302720" cy="8385840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2398,9 +2398,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768600</xdr:colOff>
+      <xdr:colOff>768240</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2410,7 +2410,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13160520" cy="8548560"/>
+          <a:ext cx="13245840" cy="8548200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2443,9 +2443,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768600</xdr:colOff>
+      <xdr:colOff>768240</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2455,7 +2455,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13160520" cy="8548560"/>
+          <a:ext cx="13245840" cy="8548200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2488,9 +2488,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768600</xdr:colOff>
+      <xdr:colOff>768240</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2500,7 +2500,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13160520" cy="8548560"/>
+          <a:ext cx="13245840" cy="8548200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2538,9 +2538,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2550,7 +2550,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13217040" cy="9521280"/>
+          <a:ext cx="13302360" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2580,9 +2580,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2592,7 +2592,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13217040" cy="9521280"/>
+          <a:ext cx="13302360" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2622,9 +2622,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2634,7 +2634,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13217040" cy="9521280"/>
+          <a:ext cx="13302360" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2664,9 +2664,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2676,7 +2676,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13160160" cy="9521640"/>
+          <a:ext cx="13245480" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2709,9 +2709,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2721,7 +2721,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13160160" cy="9521640"/>
+          <a:ext cx="13245480" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2754,9 +2754,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2766,7 +2766,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13160160" cy="9521640"/>
+          <a:ext cx="13245480" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2804,9 +2804,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2816,7 +2816,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13217040" cy="9521280"/>
+          <a:ext cx="13302360" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2846,9 +2846,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2858,7 +2858,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13217040" cy="9521280"/>
+          <a:ext cx="13302360" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13217040" cy="9521280"/>
+          <a:ext cx="13302360" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2930,9 +2930,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187200</xdr:rowOff>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2942,7 +2942,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13160160" cy="9521640"/>
+          <a:ext cx="13245480" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2975,9 +2975,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187200</xdr:rowOff>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2987,7 +2987,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13160160" cy="9521640"/>
+          <a:ext cx="13245480" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3020,9 +3020,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187200</xdr:rowOff>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3032,7 +3032,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13160160" cy="9521640"/>
+          <a:ext cx="13245480" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3070,9 +3070,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3082,7 +3082,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13217040" cy="9521280"/>
+          <a:ext cx="13302360" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3112,9 +3112,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3124,7 +3124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13217040" cy="9521280"/>
+          <a:ext cx="13302360" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3154,9 +3154,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3166,7 +3166,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13217040" cy="9521280"/>
+          <a:ext cx="13302360" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3196,9 +3196,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187200</xdr:rowOff>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3208,7 +3208,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13160160" cy="9521640"/>
+          <a:ext cx="13245480" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3241,9 +3241,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187200</xdr:rowOff>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3253,7 +3253,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13160160" cy="9521640"/>
+          <a:ext cx="13245480" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3286,9 +3286,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187200</xdr:rowOff>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3298,7 +3298,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13160160" cy="9521640"/>
+          <a:ext cx="13245480" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3336,9 +3336,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3348,7 +3348,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13217040" cy="9521280"/>
+          <a:ext cx="13302360" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3378,9 +3378,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3390,7 +3390,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13217040" cy="9521280"/>
+          <a:ext cx="13302360" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3420,9 +3420,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3432,7 +3432,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13217040" cy="9521280"/>
+          <a:ext cx="13302360" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3462,9 +3462,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187200</xdr:rowOff>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3474,7 +3474,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13160160" cy="9521640"/>
+          <a:ext cx="13245480" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3507,9 +3507,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187200</xdr:rowOff>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3519,7 +3519,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13160160" cy="9521640"/>
+          <a:ext cx="13245480" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3552,9 +3552,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>187200</xdr:rowOff>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3564,7 +3564,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13160160" cy="9521640"/>
+          <a:ext cx="13245480" cy="9521280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3626,19 +3626,19 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="20" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="20" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
@@ -3913,15 +3913,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="21" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -4508,15 +4508,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5103,15 +5103,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -5420,15 +5420,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -5702,15 +5702,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5983,15 +5983,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="34.17004048583"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="38" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="34.7085020242915"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -6759,15 +6759,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.1336032388664"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7532,15 +7532,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.1336032388664"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8270,15 +8270,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.1336032388664"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -9008,15 +9008,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -9579,15 +9579,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.1336032388664"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -10212,15 +10212,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.17004048583"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -10810,15 +10810,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.17004048583"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="48" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -11408,15 +11408,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.17004048583"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12006,15 +12006,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="12" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12532,15 +12532,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="12" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12813,15 +12813,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="12" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13089,21 +13089,21 @@
   </sheetPr>
   <dimension ref="A1:K65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -13309,15 +13309,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13522,15 +13522,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13839,15 +13839,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/CCRU/Data/KPIs_2019/Gaps Guide 2019.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/Gaps Guide 2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="rules" sheetId="1" state="visible" r:id="rId2"/>
@@ -941,7 +941,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -952,6 +952,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1021,7 +1027,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1074,6 +1080,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1082,11 +1096,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="3" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="6" fillId="4" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1122,11 +1136,19 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1134,19 +1156,11 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="3" borderId="1" xfId="15" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="1" xfId="15" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1162,11 +1176,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1190,7 +1204,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1198,7 +1212,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1306,9 +1320,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>284760</xdr:colOff>
+      <xdr:colOff>284400</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1322,7 +1336,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17886960" cy="2216880"/>
+          <a:ext cx="17886600" cy="2216520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1348,9 +1362,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>500040</xdr:colOff>
+      <xdr:colOff>499680</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:rowOff>146520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1360,7 +1374,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13787280" cy="9621000"/>
+          <a:ext cx="13863240" cy="9620640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1390,9 +1404,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>500040</xdr:colOff>
+      <xdr:colOff>499680</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:rowOff>146520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1402,7 +1416,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13787280" cy="9621000"/>
+          <a:ext cx="13863240" cy="9620640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1432,9 +1446,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>500040</xdr:colOff>
+      <xdr:colOff>499680</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:rowOff>146520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1444,7 +1458,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13787280" cy="9621000"/>
+          <a:ext cx="13863240" cy="9620640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1474,9 +1488,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
+      <xdr:colOff>291600</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>34560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1486,7 +1500,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13579200" cy="9127800"/>
+          <a:ext cx="13655160" cy="9127440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1516,9 +1530,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
+      <xdr:colOff>291600</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>34560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1528,7 +1542,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13579200" cy="9127800"/>
+          <a:ext cx="13655160" cy="9127440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1558,9 +1572,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
+      <xdr:colOff>291600</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>34560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1570,7 +1584,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13579200" cy="9127800"/>
+          <a:ext cx="13655160" cy="9127440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1600,9 +1614,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>235080</xdr:colOff>
+      <xdr:colOff>234720</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1612,7 +1626,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13522320" cy="9128160"/>
+          <a:ext cx="13598280" cy="9127800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1645,9 +1659,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>235080</xdr:colOff>
+      <xdr:colOff>234720</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1657,7 +1671,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13522320" cy="9128160"/>
+          <a:ext cx="13598280" cy="9127800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1690,9 +1704,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>235080</xdr:colOff>
+      <xdr:colOff>234720</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1702,7 +1716,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13522320" cy="9128160"/>
+          <a:ext cx="13598280" cy="9127800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1740,9 +1754,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1752,7 +1766,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302720" cy="8413920"/>
+          <a:ext cx="13388040" cy="8413560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1782,9 +1796,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1794,7 +1808,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302720" cy="8413920"/>
+          <a:ext cx="13388040" cy="8413560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1824,9 +1838,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1836,7 +1850,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302720" cy="8413920"/>
+          <a:ext cx="13388040" cy="8413560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1866,9 +1880,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1878,7 +1892,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245840" cy="8251560"/>
+          <a:ext cx="13331160" cy="8251200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1911,9 +1925,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1923,7 +1937,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245840" cy="8251560"/>
+          <a:ext cx="13331160" cy="8251200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1956,9 +1970,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1968,7 +1982,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245840" cy="8251560"/>
+          <a:ext cx="13331160" cy="8251200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2006,9 +2020,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2018,7 +2032,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302720" cy="8385840"/>
+          <a:ext cx="13388040" cy="8385480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2048,9 +2062,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2060,7 +2074,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302720" cy="8385840"/>
+          <a:ext cx="13388040" cy="8385480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2090,9 +2104,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2102,7 +2116,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302720" cy="8385840"/>
+          <a:ext cx="13388040" cy="8385480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2132,9 +2146,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2144,7 +2158,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245840" cy="8548200"/>
+          <a:ext cx="13331160" cy="8547840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2177,9 +2191,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2189,7 +2203,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245840" cy="8548200"/>
+          <a:ext cx="13331160" cy="8547840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2222,9 +2236,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2234,7 +2248,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245840" cy="8548200"/>
+          <a:ext cx="13331160" cy="8547840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2272,9 +2286,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2284,7 +2298,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302720" cy="8385840"/>
+          <a:ext cx="13388040" cy="8385480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2314,9 +2328,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2326,7 +2340,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302720" cy="8385840"/>
+          <a:ext cx="13388040" cy="8385480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2356,9 +2370,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2368,7 +2382,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302720" cy="8385840"/>
+          <a:ext cx="13388040" cy="8385480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2398,9 +2412,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2410,7 +2424,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245840" cy="8548200"/>
+          <a:ext cx="13331160" cy="8547840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2443,9 +2457,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2455,7 +2469,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245840" cy="8548200"/>
+          <a:ext cx="13331160" cy="8547840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2488,9 +2502,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2500,7 +2514,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245840" cy="8548200"/>
+          <a:ext cx="13331160" cy="8547840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2538,9 +2552,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>824760</xdr:colOff>
+      <xdr:colOff>824400</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2550,7 +2564,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302360" cy="9520920"/>
+          <a:ext cx="13387680" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2580,9 +2594,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>824760</xdr:colOff>
+      <xdr:colOff>824400</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2592,7 +2606,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302360" cy="9520920"/>
+          <a:ext cx="13387680" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2622,9 +2636,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>824760</xdr:colOff>
+      <xdr:colOff>824400</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2634,7 +2648,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302360" cy="9520920"/>
+          <a:ext cx="13387680" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2664,9 +2678,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>767880</xdr:colOff>
+      <xdr:colOff>767520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2676,7 +2690,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245480" cy="9521280"/>
+          <a:ext cx="13330800" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2709,9 +2723,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>767880</xdr:colOff>
+      <xdr:colOff>767520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2721,7 +2735,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245480" cy="9521280"/>
+          <a:ext cx="13330800" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2754,9 +2768,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>767880</xdr:colOff>
+      <xdr:colOff>767520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2766,7 +2780,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245480" cy="9521280"/>
+          <a:ext cx="13330800" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2804,9 +2818,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>824760</xdr:colOff>
+      <xdr:colOff>824400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186480</xdr:rowOff>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2816,7 +2830,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302360" cy="9520920"/>
+          <a:ext cx="13387680" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2846,9 +2860,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>824760</xdr:colOff>
+      <xdr:colOff>824400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186480</xdr:rowOff>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2858,7 +2872,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302360" cy="9520920"/>
+          <a:ext cx="13387680" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2888,9 +2902,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>824760</xdr:colOff>
+      <xdr:colOff>824400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186480</xdr:rowOff>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2914,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302360" cy="9520920"/>
+          <a:ext cx="13387680" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2930,9 +2944,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>767880</xdr:colOff>
+      <xdr:colOff>767520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2942,7 +2956,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245480" cy="9521280"/>
+          <a:ext cx="13330800" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2975,9 +2989,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>767880</xdr:colOff>
+      <xdr:colOff>767520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2987,7 +3001,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245480" cy="9521280"/>
+          <a:ext cx="13330800" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3020,9 +3034,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>767880</xdr:colOff>
+      <xdr:colOff>767520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3032,7 +3046,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245480" cy="9521280"/>
+          <a:ext cx="13330800" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3070,9 +3084,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>824760</xdr:colOff>
+      <xdr:colOff>824400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186480</xdr:rowOff>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3082,7 +3096,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302360" cy="9520920"/>
+          <a:ext cx="13387680" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3112,9 +3126,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>824760</xdr:colOff>
+      <xdr:colOff>824400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186480</xdr:rowOff>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3124,7 +3138,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302360" cy="9520920"/>
+          <a:ext cx="13387680" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3154,9 +3168,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>824760</xdr:colOff>
+      <xdr:colOff>824400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186480</xdr:rowOff>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3166,7 +3180,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302360" cy="9520920"/>
+          <a:ext cx="13387680" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3196,9 +3210,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>767880</xdr:colOff>
+      <xdr:colOff>767520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3208,7 +3222,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245480" cy="9521280"/>
+          <a:ext cx="13330800" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3241,9 +3255,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>767880</xdr:colOff>
+      <xdr:colOff>767520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3253,7 +3267,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245480" cy="9521280"/>
+          <a:ext cx="13330800" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3286,9 +3300,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>767880</xdr:colOff>
+      <xdr:colOff>767520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3298,7 +3312,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245480" cy="9521280"/>
+          <a:ext cx="13330800" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3336,9 +3350,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>824760</xdr:colOff>
+      <xdr:colOff>824400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186480</xdr:rowOff>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3348,7 +3362,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302360" cy="9520920"/>
+          <a:ext cx="13387680" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3378,9 +3392,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>824760</xdr:colOff>
+      <xdr:colOff>824400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186480</xdr:rowOff>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3390,7 +3404,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302360" cy="9520920"/>
+          <a:ext cx="13387680" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3420,9 +3434,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>824760</xdr:colOff>
+      <xdr:colOff>824400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186480</xdr:rowOff>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3432,7 +3446,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302360" cy="9520920"/>
+          <a:ext cx="13387680" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3462,9 +3476,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>767880</xdr:colOff>
+      <xdr:colOff>767520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3474,7 +3488,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245480" cy="9521280"/>
+          <a:ext cx="13330800" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3507,9 +3521,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>767880</xdr:colOff>
+      <xdr:colOff>767520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3519,7 +3533,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245480" cy="9521280"/>
+          <a:ext cx="13330800" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3552,9 +3566,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>767880</xdr:colOff>
+      <xdr:colOff>767520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3564,7 +3578,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245480" cy="9521280"/>
+          <a:ext cx="13330800" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3626,19 +3640,19 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.6356275303644"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.0607287449393"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="20" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.4898785425101"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="22" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
@@ -3672,10 +3686,10 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3698,19 +3712,19 @@
       <c r="F2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="16" t="s">
         <v>61</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="18" t="n">
+      <c r="I2" s="20" t="n">
         <v>0.12</v>
       </c>
-      <c r="J2" s="17" t="n">
+      <c r="J2" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="K2" s="17" t="n">
+      <c r="K2" s="19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3733,19 +3747,19 @@
       <c r="F3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="16" t="s">
         <v>60</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="18" t="n">
+      <c r="I3" s="20" t="n">
         <v>0.28</v>
       </c>
-      <c r="J3" s="17" t="n">
+      <c r="J3" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="17" t="n">
+      <c r="K3" s="19" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3768,19 +3782,19 @@
       <c r="F4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="16" t="s">
         <v>37</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="18" t="n">
+      <c r="I4" s="20" t="n">
         <v>0.08</v>
       </c>
-      <c r="J4" s="17" t="n">
+      <c r="J4" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="17" t="n">
+      <c r="K4" s="19" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3803,89 +3817,89 @@
       <c r="F5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="16" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="18" t="n">
+      <c r="I5" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="J5" s="17" t="n">
+      <c r="J5" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="K5" s="17" t="n">
+      <c r="K5" s="19" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="17" t="s">
+      <c r="C6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="19" t="n">
+      <c r="I6" s="21" t="n">
         <v>0.04</v>
       </c>
-      <c r="J6" s="17" t="n">
+      <c r="J6" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="K6" s="17" t="n">
+      <c r="K6" s="19" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="17" t="s">
+      <c r="C7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="19" t="n">
+      <c r="I7" s="21" t="n">
         <v>0.04</v>
       </c>
-      <c r="J7" s="17" t="n">
+      <c r="J7" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="K7" s="17" t="n">
+      <c r="K7" s="19" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3913,15 +3927,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="23" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -3951,7 +3965,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -3974,19 +3988,19 @@
       <c r="D2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="24" t="n">
+      <c r="I2" s="26" t="n">
         <v>0.0425</v>
       </c>
       <c r="J2" s="6" t="n">
@@ -3997,70 +4011,70 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="A3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="27" t="n">
+      <c r="I3" s="29" t="n">
         <v>0.025</v>
       </c>
-      <c r="J3" s="25" t="n">
+      <c r="J3" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="K3" s="25"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="25" t="s">
+      <c r="A4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="27" t="n">
+      <c r="I4" s="29" t="n">
         <v>0.0175</v>
       </c>
-      <c r="J4" s="25" t="n">
+      <c r="J4" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="K4" s="25"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
@@ -4075,19 +4089,19 @@
       <c r="D5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="24" t="n">
+      <c r="I5" s="26" t="n">
         <v>0.0425</v>
       </c>
       <c r="J5" s="6" t="n">
@@ -4110,19 +4124,19 @@
       <c r="D6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="24" t="n">
+      <c r="I6" s="26" t="n">
         <v>0.0425</v>
       </c>
       <c r="J6" s="6" t="n">
@@ -4145,19 +4159,19 @@
       <c r="D7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="24" t="n">
+      <c r="I7" s="26" t="n">
         <v>0.0425</v>
       </c>
       <c r="J7" s="6" t="n">
@@ -4192,7 +4206,7 @@
       <c r="H8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="24" t="n">
+      <c r="I8" s="26" t="n">
         <v>0.1275</v>
       </c>
       <c r="J8" s="6" t="n">
@@ -4221,13 +4235,13 @@
       <c r="F9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="24" t="n">
+      <c r="I9" s="26" t="n">
         <v>0.0425</v>
       </c>
       <c r="J9" s="6" t="n">
@@ -4256,13 +4270,13 @@
       <c r="F10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="24" t="n">
+      <c r="I10" s="26" t="n">
         <v>0.0425</v>
       </c>
       <c r="J10" s="6" t="n">
@@ -4291,13 +4305,13 @@
       <c r="F11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="24" t="n">
+      <c r="I11" s="26" t="n">
         <v>0.0425</v>
       </c>
       <c r="J11" s="6" t="n">
@@ -4326,13 +4340,13 @@
       <c r="F12" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="29" t="n">
+      <c r="I12" s="31" t="n">
         <v>0.02</v>
       </c>
       <c r="J12" s="6" t="n">
@@ -4361,13 +4375,13 @@
       <c r="F13" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="I13" s="29" t="n">
+      <c r="I13" s="31" t="n">
         <v>0.025</v>
       </c>
       <c r="J13" s="6" t="n">
@@ -4396,13 +4410,13 @@
       <c r="F14" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="29" t="n">
+      <c r="I14" s="31" t="n">
         <v>0.025</v>
       </c>
       <c r="J14" s="6" t="n">
@@ -4413,72 +4427,72 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="30" t="n">
+      <c r="I15" s="32" t="n">
         <v>0.02</v>
       </c>
-      <c r="J15" s="25" t="n">
+      <c r="J15" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="K15" s="25" t="n">
+      <c r="K15" s="27" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="30" t="n">
+      <c r="I16" s="32" t="n">
         <v>0.03</v>
       </c>
-      <c r="J16" s="25" t="n">
+      <c r="J16" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="K16" s="25" t="n">
+      <c r="K16" s="27" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4508,15 +4522,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -4568,19 +4582,19 @@
       <c r="D2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="24" t="n">
+      <c r="I2" s="26" t="n">
         <v>0.0425</v>
       </c>
       <c r="J2" s="6" t="n">
@@ -4592,70 +4606,70 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="A3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="27" t="n">
+      <c r="I3" s="29" t="n">
         <v>0.025</v>
       </c>
-      <c r="J3" s="25" t="n">
+      <c r="J3" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="K3" s="25"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="25" t="s">
+      <c r="A4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="27" t="n">
+      <c r="I4" s="29" t="n">
         <v>0.0175</v>
       </c>
-      <c r="J4" s="25" t="n">
+      <c r="J4" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="K4" s="25"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
@@ -4670,19 +4684,19 @@
       <c r="D5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="24" t="n">
+      <c r="I5" s="26" t="n">
         <v>0.0425</v>
       </c>
       <c r="J5" s="6" t="n">
@@ -4705,19 +4719,19 @@
       <c r="D6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="24" t="n">
+      <c r="I6" s="26" t="n">
         <v>0.0425</v>
       </c>
       <c r="J6" s="6" t="n">
@@ -4740,19 +4754,19 @@
       <c r="D7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="24" t="n">
+      <c r="I7" s="26" t="n">
         <v>0.0425</v>
       </c>
       <c r="J7" s="6" t="n">
@@ -4787,7 +4801,7 @@
       <c r="H8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="24" t="n">
+      <c r="I8" s="26" t="n">
         <v>0.1275</v>
       </c>
       <c r="J8" s="6" t="n">
@@ -4816,13 +4830,13 @@
       <c r="F9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="24" t="n">
+      <c r="I9" s="26" t="n">
         <v>0.0425</v>
       </c>
       <c r="J9" s="6" t="n">
@@ -4851,13 +4865,13 @@
       <c r="F10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="24" t="n">
+      <c r="I10" s="26" t="n">
         <v>0.0425</v>
       </c>
       <c r="J10" s="6" t="n">
@@ -4886,13 +4900,13 @@
       <c r="F11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="24" t="n">
+      <c r="I11" s="26" t="n">
         <v>0.0425</v>
       </c>
       <c r="J11" s="6" t="n">
@@ -4921,13 +4935,13 @@
       <c r="F12" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="29" t="n">
+      <c r="I12" s="31" t="n">
         <v>0.02</v>
       </c>
       <c r="J12" s="6" t="n">
@@ -4956,13 +4970,13 @@
       <c r="F13" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="I13" s="29" t="n">
+      <c r="I13" s="31" t="n">
         <v>0.025</v>
       </c>
       <c r="J13" s="6" t="n">
@@ -4991,13 +5005,13 @@
       <c r="F14" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="29" t="n">
+      <c r="I14" s="31" t="n">
         <v>0.025</v>
       </c>
       <c r="J14" s="6" t="n">
@@ -5008,72 +5022,72 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="30" t="n">
+      <c r="I15" s="32" t="n">
         <v>0.02</v>
       </c>
-      <c r="J15" s="25" t="n">
+      <c r="J15" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="K15" s="25" t="n">
+      <c r="K15" s="27" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="30" t="n">
+      <c r="I16" s="32" t="n">
         <v>0.03</v>
       </c>
-      <c r="J16" s="25" t="n">
+      <c r="J16" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="K16" s="25" t="n">
+      <c r="K16" s="27" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5103,15 +5117,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -5176,7 +5190,7 @@
       <c r="H2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="31" t="n">
+      <c r="I2" s="33" t="n">
         <v>0.05</v>
       </c>
       <c r="J2" s="6" t="n">
@@ -5211,7 +5225,7 @@
       <c r="H3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="32" t="n">
+      <c r="I3" s="34" t="n">
         <v>0.28</v>
       </c>
       <c r="J3" s="6" t="n">
@@ -5246,7 +5260,7 @@
       <c r="H4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="31" t="n">
+      <c r="I4" s="33" t="n">
         <v>0.07</v>
       </c>
       <c r="J4" s="6" t="n">
@@ -5281,7 +5295,7 @@
       <c r="H5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="32" t="n">
+      <c r="I5" s="34" t="n">
         <v>0.08</v>
       </c>
       <c r="J5" s="6" t="n">
@@ -5310,13 +5324,13 @@
       <c r="F6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="33" t="n">
+      <c r="I6" s="35" t="n">
         <v>0.04</v>
       </c>
       <c r="J6" s="6" t="n">
@@ -5345,13 +5359,13 @@
       <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="33" t="n">
+      <c r="I7" s="35" t="n">
         <v>0.04</v>
       </c>
       <c r="J7" s="6" t="n">
@@ -5380,13 +5394,13 @@
       <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="33" t="n">
+      <c r="I8" s="35" t="n">
         <v>0.04</v>
       </c>
       <c r="J8" s="6" t="n">
@@ -5420,15 +5434,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.9230769230769"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.4574898785425"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -5481,19 +5495,19 @@
       <c r="D2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="35" t="n">
+      <c r="I2" s="37" t="n">
         <v>0.09</v>
       </c>
       <c r="J2" s="6" t="n">
@@ -5504,37 +5518,37 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="A3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="36" t="n">
+      <c r="I3" s="38" t="n">
         <v>0.01</v>
       </c>
-      <c r="J3" s="25" t="n">
+      <c r="J3" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="K3" s="25" t="n">
+      <c r="K3" s="27" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5563,7 +5577,7 @@
       <c r="H4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="37" t="n">
+      <c r="I4" s="39" t="n">
         <v>0.135</v>
       </c>
       <c r="J4" s="6" t="n">
@@ -5592,13 +5606,13 @@
       <c r="F5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="37" t="n">
+      <c r="I5" s="39" t="n">
         <v>0.045</v>
       </c>
       <c r="J5" s="6" t="n">
@@ -5627,13 +5641,13 @@
       <c r="F6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="37" t="n">
+      <c r="I6" s="39" t="n">
         <v>0.045</v>
       </c>
       <c r="J6" s="6" t="n">
@@ -5662,13 +5676,13 @@
       <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="37" t="n">
+      <c r="I7" s="39" t="n">
         <v>0.045</v>
       </c>
       <c r="J7" s="6" t="n">
@@ -5702,15 +5716,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5762,19 +5776,19 @@
       <c r="D2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="35" t="n">
+      <c r="I2" s="37" t="n">
         <v>0.09</v>
       </c>
       <c r="J2" s="6" t="n">
@@ -5785,37 +5799,37 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="A3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="36" t="n">
+      <c r="I3" s="38" t="n">
         <v>0.01</v>
       </c>
-      <c r="J3" s="25" t="n">
+      <c r="J3" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="K3" s="25" t="n">
+      <c r="K3" s="27" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5844,7 +5858,7 @@
       <c r="H4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="37" t="n">
+      <c r="I4" s="39" t="n">
         <v>0.135</v>
       </c>
       <c r="J4" s="6" t="n">
@@ -5873,13 +5887,13 @@
       <c r="F5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="37" t="n">
+      <c r="I5" s="39" t="n">
         <v>0.045</v>
       </c>
       <c r="J5" s="6" t="n">
@@ -5908,13 +5922,13 @@
       <c r="F6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="37" t="n">
+      <c r="I6" s="39" t="n">
         <v>0.045</v>
       </c>
       <c r="J6" s="6" t="n">
@@ -5943,13 +5957,13 @@
       <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="37" t="n">
+      <c r="I7" s="39" t="n">
         <v>0.045</v>
       </c>
       <c r="J7" s="6" t="n">
@@ -5983,15 +5997,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="38" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="40" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="34.919028340081"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -6021,7 +6035,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -6050,13 +6064,13 @@
       <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="30" t="s">
         <v>88</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="40" t="n">
+      <c r="I2" s="42" t="n">
         <v>0.04</v>
       </c>
       <c r="J2" s="9" t="n">
@@ -6085,13 +6099,13 @@
       <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="43" t="s">
         <v>90</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="40" t="n">
+      <c r="I3" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J3" s="9" t="n">
@@ -6120,13 +6134,13 @@
       <c r="F4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="30" t="s">
         <v>93</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="40" t="n">
+      <c r="I4" s="42" t="n">
         <v>0.02</v>
       </c>
       <c r="J4" s="9" t="n">
@@ -6155,13 +6169,13 @@
       <c r="F5" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>95</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="40" t="n">
+      <c r="I5" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J5" s="9" t="n">
@@ -6190,13 +6204,13 @@
       <c r="F6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="42" t="n">
+      <c r="I6" s="44" t="n">
         <v>0.035</v>
       </c>
       <c r="J6" s="9" t="n">
@@ -6225,13 +6239,13 @@
       <c r="F7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="42" t="n">
+      <c r="I7" s="44" t="n">
         <v>0.02</v>
       </c>
       <c r="J7" s="9" t="n">
@@ -6260,13 +6274,13 @@
       <c r="F8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="30" t="s">
         <v>103</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="42" t="n">
+      <c r="I8" s="44" t="n">
         <v>0.025</v>
       </c>
       <c r="J8" s="9" t="n">
@@ -6295,13 +6309,13 @@
       <c r="F9" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="40" t="n">
+      <c r="I9" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J9" s="9" t="n">
@@ -6330,13 +6344,13 @@
       <c r="F10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="I10" s="40" t="n">
+      <c r="I10" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J10" s="9" t="n">
@@ -6365,13 +6379,13 @@
       <c r="F11" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="I11" s="40" t="n">
+      <c r="I11" s="42" t="n">
         <v>0.03</v>
       </c>
       <c r="J11" s="9" t="n">
@@ -6400,13 +6414,13 @@
       <c r="F12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="30" t="s">
         <v>113</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="I12" s="43" t="n">
+      <c r="I12" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J12" s="9" t="n">
@@ -6435,13 +6449,13 @@
       <c r="F13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="30" t="s">
         <v>115</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="43" t="n">
+      <c r="I13" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J13" s="9" t="n">
@@ -6470,13 +6484,13 @@
       <c r="F14" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="30" t="s">
         <v>118</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="43" t="n">
+      <c r="I14" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J14" s="9" t="n">
@@ -6505,13 +6519,13 @@
       <c r="F15" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="30" t="s">
         <v>121</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="I15" s="43" t="n">
+      <c r="I15" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J15" s="9" t="n">
@@ -6546,7 +6560,7 @@
       <c r="H16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="40" t="n">
+      <c r="I16" s="42" t="n">
         <v>0.065</v>
       </c>
       <c r="J16" s="9" t="n">
@@ -6581,7 +6595,7 @@
       <c r="H17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="40" t="n">
+      <c r="I17" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J17" s="9" t="n">
@@ -6616,7 +6630,7 @@
       <c r="H18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="40" t="n">
+      <c r="I18" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J18" s="9" t="n">
@@ -6651,7 +6665,7 @@
       <c r="H19" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="40" t="n">
+      <c r="I19" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J19" s="9" t="n">
@@ -6686,7 +6700,7 @@
       <c r="H20" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="40" t="n">
+      <c r="I20" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J20" s="9" t="n">
@@ -6721,7 +6735,7 @@
       <c r="H21" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="I21" s="43" t="n">
+      <c r="I21" s="45" t="n">
         <v>0.03</v>
       </c>
       <c r="J21" s="9" t="n">
@@ -6759,15 +6773,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.3481781376518"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6796,7 +6810,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -6825,13 +6839,13 @@
       <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="30" t="s">
         <v>88</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="40" t="n">
+      <c r="I2" s="42" t="n">
         <v>0.04</v>
       </c>
       <c r="J2" s="9" t="n">
@@ -6860,13 +6874,13 @@
       <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="43" t="s">
         <v>90</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="40" t="n">
+      <c r="I3" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J3" s="9" t="n">
@@ -6895,13 +6909,13 @@
       <c r="F4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="30" t="s">
         <v>93</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="40" t="n">
+      <c r="I4" s="42" t="n">
         <v>0.02</v>
       </c>
       <c r="J4" s="9" t="n">
@@ -6930,13 +6944,13 @@
       <c r="F5" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>95</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="40" t="n">
+      <c r="I5" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J5" s="9" t="n">
@@ -6965,13 +6979,13 @@
       <c r="F6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="42" t="n">
+      <c r="I6" s="44" t="n">
         <v>0.035</v>
       </c>
       <c r="J6" s="9" t="n">
@@ -7000,13 +7014,13 @@
       <c r="F7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="42" t="n">
+      <c r="I7" s="44" t="n">
         <v>0.02</v>
       </c>
       <c r="J7" s="9" t="n">
@@ -7035,13 +7049,13 @@
       <c r="F8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="30" t="s">
         <v>103</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="42" t="n">
+      <c r="I8" s="44" t="n">
         <v>0.025</v>
       </c>
       <c r="J8" s="9" t="n">
@@ -7070,13 +7084,13 @@
       <c r="F9" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="40" t="n">
+      <c r="I9" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J9" s="9" t="n">
@@ -7105,13 +7119,13 @@
       <c r="F10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="I10" s="40" t="n">
+      <c r="I10" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J10" s="9" t="n">
@@ -7140,13 +7154,13 @@
       <c r="F11" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="I11" s="40" t="n">
+      <c r="I11" s="42" t="n">
         <v>0.03</v>
       </c>
       <c r="J11" s="9" t="n">
@@ -7175,13 +7189,13 @@
       <c r="F12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="30" t="s">
         <v>113</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="I12" s="43" t="n">
+      <c r="I12" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J12" s="9" t="n">
@@ -7210,13 +7224,13 @@
       <c r="F13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="30" t="s">
         <v>115</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="43" t="n">
+      <c r="I13" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J13" s="9" t="n">
@@ -7245,13 +7259,13 @@
       <c r="F14" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="30" t="s">
         <v>118</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="43" t="n">
+      <c r="I14" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J14" s="9" t="n">
@@ -7280,13 +7294,13 @@
       <c r="F15" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="30" t="s">
         <v>121</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="I15" s="43" t="n">
+      <c r="I15" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J15" s="9" t="n">
@@ -7321,7 +7335,7 @@
       <c r="H16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="40" t="n">
+      <c r="I16" s="42" t="n">
         <v>0.065</v>
       </c>
       <c r="J16" s="9" t="n">
@@ -7356,7 +7370,7 @@
       <c r="H17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="40" t="n">
+      <c r="I17" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J17" s="9" t="n">
@@ -7391,7 +7405,7 @@
       <c r="H18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="40" t="n">
+      <c r="I18" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J18" s="9" t="n">
@@ -7426,7 +7440,7 @@
       <c r="H19" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="40" t="n">
+      <c r="I19" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J19" s="9" t="n">
@@ -7461,7 +7475,7 @@
       <c r="H20" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="40" t="n">
+      <c r="I20" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J20" s="9" t="n">
@@ -7496,7 +7510,7 @@
       <c r="H21" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="I21" s="43" t="n">
+      <c r="I21" s="45" t="n">
         <v>0.03</v>
       </c>
       <c r="J21" s="9" t="n">
@@ -7532,15 +7546,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.3481781376518"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7569,7 +7583,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -7598,13 +7612,13 @@
       <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="37" t="n">
+      <c r="I2" s="39" t="n">
         <v>0.045</v>
       </c>
       <c r="J2" s="9" t="n">
@@ -7633,13 +7647,13 @@
       <c r="F3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="44" t="n">
+      <c r="I3" s="46" t="n">
         <v>0.03</v>
       </c>
       <c r="J3" s="9" t="n">
@@ -7668,13 +7682,13 @@
       <c r="F4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="35" t="n">
+      <c r="I4" s="37" t="n">
         <v>0.04</v>
       </c>
       <c r="J4" s="9" t="n">
@@ -7703,13 +7717,13 @@
       <c r="F5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="44" t="n">
+      <c r="I5" s="46" t="n">
         <v>0.015</v>
       </c>
       <c r="J5" s="9" t="n">
@@ -7738,13 +7752,13 @@
       <c r="F6" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="I6" s="45" t="n">
+      <c r="I6" s="47" t="n">
         <v>0.03</v>
       </c>
       <c r="J6" s="9" t="n">
@@ -7776,10 +7790,10 @@
       <c r="G7" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="46" t="n">
+      <c r="I7" s="48" t="n">
         <v>0.03</v>
       </c>
       <c r="J7" s="9" t="n">
@@ -7808,13 +7822,13 @@
       <c r="F8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="35" t="n">
+      <c r="I8" s="37" t="n">
         <v>0.035</v>
       </c>
       <c r="J8" s="9" t="n">
@@ -7849,7 +7863,7 @@
       <c r="H9" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="40" t="n">
+      <c r="I9" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J9" s="9" t="n">
@@ -7878,13 +7892,13 @@
       <c r="F10" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="40" t="n">
+      <c r="I10" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J10" s="9" t="n">
@@ -7913,13 +7927,13 @@
       <c r="F11" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="42" t="n">
+      <c r="I11" s="44" t="n">
         <v>0.015</v>
       </c>
       <c r="J11" s="9" t="n">
@@ -7948,13 +7962,13 @@
       <c r="F12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="30" t="s">
         <v>113</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="I12" s="43" t="n">
+      <c r="I12" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J12" s="9" t="n">
@@ -7983,13 +7997,13 @@
       <c r="F13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="30" t="s">
         <v>115</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="43" t="n">
+      <c r="I13" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J13" s="9" t="n">
@@ -8018,13 +8032,13 @@
       <c r="F14" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="30" t="s">
         <v>118</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="43" t="n">
+      <c r="I14" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J14" s="9" t="n">
@@ -8059,7 +8073,7 @@
       <c r="H15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="40" t="n">
+      <c r="I15" s="42" t="n">
         <v>0.065</v>
       </c>
       <c r="J15" s="9" t="n">
@@ -8094,7 +8108,7 @@
       <c r="H16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="40" t="n">
+      <c r="I16" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J16" s="9" t="n">
@@ -8129,7 +8143,7 @@
       <c r="H17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="40" t="n">
+      <c r="I17" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J17" s="9" t="n">
@@ -8164,7 +8178,7 @@
       <c r="H18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="40" t="n">
+      <c r="I18" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J18" s="9" t="n">
@@ -8199,7 +8213,7 @@
       <c r="H19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="40" t="n">
+      <c r="I19" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J19" s="9" t="n">
@@ -8228,13 +8242,13 @@
       <c r="F20" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="30" t="s">
         <v>121</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="I20" s="43" t="n">
+      <c r="I20" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J20" s="9" t="n">
@@ -8270,15 +8284,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.3481781376518"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8307,7 +8321,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -8336,13 +8350,13 @@
       <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="37" t="n">
+      <c r="I2" s="39" t="n">
         <v>0.045</v>
       </c>
       <c r="J2" s="9" t="n">
@@ -8371,13 +8385,13 @@
       <c r="F3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="44" t="n">
+      <c r="I3" s="46" t="n">
         <v>0.03</v>
       </c>
       <c r="J3" s="9" t="n">
@@ -8406,13 +8420,13 @@
       <c r="F4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="35" t="n">
+      <c r="I4" s="37" t="n">
         <v>0.04</v>
       </c>
       <c r="J4" s="9" t="n">
@@ -8441,13 +8455,13 @@
       <c r="F5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="44" t="n">
+      <c r="I5" s="46" t="n">
         <v>0.015</v>
       </c>
       <c r="J5" s="9" t="n">
@@ -8476,13 +8490,13 @@
       <c r="F6" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="I6" s="45" t="n">
+      <c r="I6" s="47" t="n">
         <v>0.03</v>
       </c>
       <c r="J6" s="9" t="n">
@@ -8514,10 +8528,10 @@
       <c r="G7" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="46" t="n">
+      <c r="I7" s="48" t="n">
         <v>0.03</v>
       </c>
       <c r="J7" s="9" t="n">
@@ -8546,13 +8560,13 @@
       <c r="F8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="35" t="n">
+      <c r="I8" s="37" t="n">
         <v>0.035</v>
       </c>
       <c r="J8" s="9" t="n">
@@ -8587,7 +8601,7 @@
       <c r="H9" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="40" t="n">
+      <c r="I9" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J9" s="9" t="n">
@@ -8616,13 +8630,13 @@
       <c r="F10" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="40" t="n">
+      <c r="I10" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J10" s="9" t="n">
@@ -8651,13 +8665,13 @@
       <c r="F11" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="42" t="n">
+      <c r="I11" s="44" t="n">
         <v>0.015</v>
       </c>
       <c r="J11" s="9" t="n">
@@ -8686,13 +8700,13 @@
       <c r="F12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="30" t="s">
         <v>113</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="I12" s="43" t="n">
+      <c r="I12" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J12" s="9" t="n">
@@ -8721,13 +8735,13 @@
       <c r="F13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="30" t="s">
         <v>115</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="43" t="n">
+      <c r="I13" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J13" s="9" t="n">
@@ -8756,13 +8770,13 @@
       <c r="F14" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="30" t="s">
         <v>118</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="43" t="n">
+      <c r="I14" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J14" s="9" t="n">
@@ -8797,7 +8811,7 @@
       <c r="H15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="40" t="n">
+      <c r="I15" s="42" t="n">
         <v>0.065</v>
       </c>
       <c r="J15" s="9" t="n">
@@ -8832,7 +8846,7 @@
       <c r="H16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="40" t="n">
+      <c r="I16" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J16" s="9" t="n">
@@ -8867,7 +8881,7 @@
       <c r="H17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="40" t="n">
+      <c r="I17" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J17" s="9" t="n">
@@ -8902,7 +8916,7 @@
       <c r="H18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="40" t="n">
+      <c r="I18" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J18" s="9" t="n">
@@ -8937,7 +8951,7 @@
       <c r="H19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="40" t="n">
+      <c r="I19" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J19" s="9" t="n">
@@ -8966,13 +8980,13 @@
       <c r="F20" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="30" t="s">
         <v>121</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="I20" s="43" t="n">
+      <c r="I20" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J20" s="9" t="n">
@@ -9003,20 +9017,20 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="33.2064777327935"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -9579,15 +9593,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.3481781376518"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -9616,7 +9630,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -9645,13 +9659,13 @@
       <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="40" t="n">
+      <c r="I2" s="42" t="n">
         <v>0.04</v>
       </c>
       <c r="J2" s="9" t="n">
@@ -9680,13 +9694,13 @@
       <c r="F3" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="I3" s="43" t="n">
+      <c r="I3" s="45" t="n">
         <v>0.04</v>
       </c>
       <c r="J3" s="9" t="n">
@@ -9715,13 +9729,13 @@
       <c r="F4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="37" t="n">
+      <c r="I4" s="39" t="n">
         <v>0.03</v>
       </c>
       <c r="J4" s="9" t="n">
@@ -9750,13 +9764,13 @@
       <c r="F5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="I5" s="37" t="n">
+      <c r="I5" s="39" t="n">
         <v>0.03</v>
       </c>
       <c r="J5" s="9" t="n">
@@ -9785,13 +9799,13 @@
       <c r="F6" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="I6" s="40" t="n">
+      <c r="I6" s="42" t="n">
         <v>0.03</v>
       </c>
       <c r="J6" s="9" t="n">
@@ -9820,13 +9834,13 @@
       <c r="F7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="I7" s="40" t="n">
+      <c r="I7" s="42" t="n">
         <v>0.02</v>
       </c>
       <c r="J7" s="9" t="n">
@@ -9861,7 +9875,7 @@
       <c r="H8" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="40" t="n">
+      <c r="I8" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J8" s="9" t="n">
@@ -9890,13 +9904,13 @@
       <c r="F9" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="30" t="s">
         <v>113</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="I9" s="43" t="n">
+      <c r="I9" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J9" s="9" t="n">
@@ -9925,13 +9939,13 @@
       <c r="F10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="30" t="s">
         <v>115</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I10" s="43" t="n">
+      <c r="I10" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J10" s="9" t="n">
@@ -9960,13 +9974,13 @@
       <c r="F11" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="30" t="s">
         <v>118</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="I11" s="43" t="n">
+      <c r="I11" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J11" s="9" t="n">
@@ -10001,7 +10015,7 @@
       <c r="H12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="37" t="n">
+      <c r="I12" s="39" t="n">
         <v>0.14</v>
       </c>
       <c r="J12" s="9" t="n">
@@ -10036,7 +10050,7 @@
       <c r="H13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="37" t="n">
+      <c r="I13" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J13" s="9" t="n">
@@ -10071,7 +10085,7 @@
       <c r="H14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="37" t="n">
+      <c r="I14" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J14" s="9" t="n">
@@ -10106,7 +10120,7 @@
       <c r="H15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="37" t="n">
+      <c r="I15" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J15" s="9" t="n">
@@ -10141,7 +10155,7 @@
       <c r="H16" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="37" t="n">
+      <c r="I16" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J16" s="9" t="n">
@@ -10170,13 +10184,13 @@
       <c r="F17" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="30" t="s">
         <v>121</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="I17" s="43" t="n">
+      <c r="I17" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J17" s="9" t="n">
@@ -10212,15 +10226,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.4939271255061"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -10249,7 +10263,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -10278,13 +10292,13 @@
       <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="47" t="n">
+      <c r="I2" s="49" t="n">
         <v>0.05</v>
       </c>
       <c r="J2" s="9" t="n">
@@ -10313,13 +10327,13 @@
       <c r="F3" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="I3" s="43" t="n">
+      <c r="I3" s="45" t="n">
         <v>0.04</v>
       </c>
       <c r="J3" s="9" t="n">
@@ -10348,13 +10362,13 @@
       <c r="F4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="47" t="n">
+      <c r="I4" s="49" t="n">
         <v>0.04</v>
       </c>
       <c r="J4" s="9" t="n">
@@ -10383,13 +10397,13 @@
       <c r="F5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="I5" s="37" t="n">
+      <c r="I5" s="39" t="n">
         <v>0.03</v>
       </c>
       <c r="J5" s="9" t="n">
@@ -10418,13 +10432,13 @@
       <c r="F6" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="I6" s="40" t="n">
+      <c r="I6" s="42" t="n">
         <v>0.03</v>
       </c>
       <c r="J6" s="9" t="n">
@@ -10459,7 +10473,7 @@
       <c r="H7" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="40" t="n">
+      <c r="I7" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J7" s="9" t="n">
@@ -10488,13 +10502,13 @@
       <c r="F8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="30" t="s">
         <v>113</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="I8" s="43" t="n">
+      <c r="I8" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J8" s="9" t="n">
@@ -10523,13 +10537,13 @@
       <c r="F9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="30" t="s">
         <v>115</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I9" s="43" t="n">
+      <c r="I9" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J9" s="9" t="n">
@@ -10558,13 +10572,13 @@
       <c r="F10" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="30" t="s">
         <v>118</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="I10" s="43" t="n">
+      <c r="I10" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J10" s="9" t="n">
@@ -10599,7 +10613,7 @@
       <c r="H11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="37" t="n">
+      <c r="I11" s="39" t="n">
         <v>0.14</v>
       </c>
       <c r="J11" s="9" t="n">
@@ -10634,7 +10648,7 @@
       <c r="H12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="37" t="n">
+      <c r="I12" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J12" s="9" t="n">
@@ -10669,7 +10683,7 @@
       <c r="H13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="37" t="n">
+      <c r="I13" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J13" s="9" t="n">
@@ -10704,7 +10718,7 @@
       <c r="H14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="37" t="n">
+      <c r="I14" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J14" s="9" t="n">
@@ -10739,7 +10753,7 @@
       <c r="H15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="37" t="n">
+      <c r="I15" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J15" s="9" t="n">
@@ -10768,13 +10782,13 @@
       <c r="F16" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="30" t="s">
         <v>121</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="I16" s="43" t="n">
+      <c r="I16" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J16" s="9" t="n">
@@ -10810,15 +10824,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="48" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="50" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -10847,7 +10861,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -10876,13 +10890,13 @@
       <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="37" t="n">
+      <c r="I2" s="39" t="n">
         <v>0.05</v>
       </c>
       <c r="J2" s="9" t="n">
@@ -10911,13 +10925,13 @@
       <c r="F3" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="I3" s="43" t="n">
+      <c r="I3" s="45" t="n">
         <v>0.04</v>
       </c>
       <c r="J3" s="9" t="n">
@@ -10946,13 +10960,13 @@
       <c r="F4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="49" t="n">
+      <c r="I4" s="51" t="n">
         <v>0.04</v>
       </c>
       <c r="J4" s="9" t="n">
@@ -10981,13 +10995,13 @@
       <c r="F5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="I5" s="37" t="n">
+      <c r="I5" s="39" t="n">
         <v>0.03</v>
       </c>
       <c r="J5" s="9" t="n">
@@ -11016,13 +11030,13 @@
       <c r="F6" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="I6" s="40" t="n">
+      <c r="I6" s="42" t="n">
         <v>0.03</v>
       </c>
       <c r="J6" s="9" t="n">
@@ -11057,7 +11071,7 @@
       <c r="H7" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="40" t="n">
+      <c r="I7" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J7" s="9" t="n">
@@ -11086,13 +11100,13 @@
       <c r="F8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="30" t="s">
         <v>113</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="I8" s="43" t="n">
+      <c r="I8" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J8" s="9" t="n">
@@ -11121,13 +11135,13 @@
       <c r="F9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="30" t="s">
         <v>115</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I9" s="43" t="n">
+      <c r="I9" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J9" s="9" t="n">
@@ -11156,13 +11170,13 @@
       <c r="F10" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="30" t="s">
         <v>118</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="I10" s="43" t="n">
+      <c r="I10" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J10" s="9" t="n">
@@ -11197,7 +11211,7 @@
       <c r="H11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="37" t="n">
+      <c r="I11" s="39" t="n">
         <v>0.14</v>
       </c>
       <c r="J11" s="9" t="n">
@@ -11232,7 +11246,7 @@
       <c r="H12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="37" t="n">
+      <c r="I12" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J12" s="9" t="n">
@@ -11267,7 +11281,7 @@
       <c r="H13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="37" t="n">
+      <c r="I13" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J13" s="9" t="n">
@@ -11302,7 +11316,7 @@
       <c r="H14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="37" t="n">
+      <c r="I14" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J14" s="9" t="n">
@@ -11337,7 +11351,7 @@
       <c r="H15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="37" t="n">
+      <c r="I15" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J15" s="9" t="n">
@@ -11366,13 +11380,13 @@
       <c r="F16" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="30" t="s">
         <v>121</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="I16" s="43" t="n">
+      <c r="I16" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J16" s="9" t="n">
@@ -11408,15 +11422,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.4939271255061"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -11445,7 +11459,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -11474,13 +11488,13 @@
       <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="37" t="n">
+      <c r="I2" s="39" t="n">
         <v>0.05</v>
       </c>
       <c r="J2" s="9" t="n">
@@ -11509,13 +11523,13 @@
       <c r="F3" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="I3" s="43" t="n">
+      <c r="I3" s="45" t="n">
         <v>0.04</v>
       </c>
       <c r="J3" s="9" t="n">
@@ -11544,13 +11558,13 @@
       <c r="F4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="49" t="n">
+      <c r="I4" s="51" t="n">
         <v>0.04</v>
       </c>
       <c r="J4" s="9" t="n">
@@ -11579,13 +11593,13 @@
       <c r="F5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="I5" s="37" t="n">
+      <c r="I5" s="39" t="n">
         <v>0.03</v>
       </c>
       <c r="J5" s="9" t="n">
@@ -11614,13 +11628,13 @@
       <c r="F6" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="I6" s="40" t="n">
+      <c r="I6" s="42" t="n">
         <v>0.03</v>
       </c>
       <c r="J6" s="9" t="n">
@@ -11655,7 +11669,7 @@
       <c r="H7" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="40" t="n">
+      <c r="I7" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J7" s="9" t="n">
@@ -11684,13 +11698,13 @@
       <c r="F8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="30" t="s">
         <v>113</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="I8" s="43" t="n">
+      <c r="I8" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J8" s="9" t="n">
@@ -11719,13 +11733,13 @@
       <c r="F9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="30" t="s">
         <v>115</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I9" s="43" t="n">
+      <c r="I9" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J9" s="9" t="n">
@@ -11754,13 +11768,13 @@
       <c r="F10" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="30" t="s">
         <v>118</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="I10" s="43" t="n">
+      <c r="I10" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J10" s="9" t="n">
@@ -11795,7 +11809,7 @@
       <c r="H11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="37" t="n">
+      <c r="I11" s="39" t="n">
         <v>0.14</v>
       </c>
       <c r="J11" s="9" t="n">
@@ -11830,7 +11844,7 @@
       <c r="H12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="37" t="n">
+      <c r="I12" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J12" s="9" t="n">
@@ -11865,7 +11879,7 @@
       <c r="H13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="37" t="n">
+      <c r="I13" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J13" s="9" t="n">
@@ -11900,7 +11914,7 @@
       <c r="H14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="37" t="n">
+      <c r="I14" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J14" s="9" t="n">
@@ -11935,7 +11949,7 @@
       <c r="H15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="37" t="n">
+      <c r="I15" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J15" s="9" t="n">
@@ -11964,13 +11978,13 @@
       <c r="F16" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="30" t="s">
         <v>121</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="I16" s="43" t="n">
+      <c r="I16" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J16" s="9" t="n">
@@ -12006,15 +12020,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.2064777327935"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="12" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12526,21 +12540,21 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="12" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12579,7 +12593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -12598,11 +12612,11 @@
       <c r="F2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>17</v>
+      <c r="H2" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="I2" s="10" t="n">
         <v>0.15</v>
@@ -12639,7 +12653,7 @@
       <c r="H3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="13" t="n">
+      <c r="I3" s="15" t="n">
         <v>0.24</v>
       </c>
       <c r="J3" s="6" t="n">
@@ -12808,20 +12822,20 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="12" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12860,7 +12874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -12879,11 +12893,11 @@
       <c r="F2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>17</v>
+      <c r="H2" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="I2" s="10" t="n">
         <v>0.15</v>
@@ -12920,7 +12934,7 @@
       <c r="H3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="13" t="n">
+      <c r="I3" s="15" t="n">
         <v>0.24</v>
       </c>
       <c r="J3" s="6" t="n">
@@ -13095,15 +13109,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -13168,7 +13182,7 @@
       <c r="H2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="14" t="n">
+      <c r="I2" s="16" t="n">
         <v>0.166666</v>
       </c>
       <c r="J2" s="6" t="n">
@@ -13203,7 +13217,7 @@
       <c r="H3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="14" t="n">
+      <c r="I3" s="16" t="n">
         <v>0.083333</v>
       </c>
       <c r="J3" s="6" t="n">
@@ -13238,7 +13252,7 @@
       <c r="H4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="14" t="n">
+      <c r="I4" s="16" t="n">
         <v>0.083333</v>
       </c>
       <c r="J4" s="6" t="n">
@@ -13273,7 +13287,7 @@
       <c r="H5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="14" t="n">
+      <c r="I5" s="16" t="n">
         <v>0.046667</v>
       </c>
       <c r="J5" s="6" t="n">
@@ -13309,15 +13323,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13381,10 +13395,10 @@
       <c r="H2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="14" t="n">
+      <c r="I2" s="16" t="n">
         <v>0.166666</v>
       </c>
-      <c r="J2" s="15" t="n">
+      <c r="J2" s="17" t="n">
         <v>2</v>
       </c>
       <c r="K2" s="6" t="n">
@@ -13416,10 +13430,10 @@
       <c r="H3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="16" t="n">
+      <c r="I3" s="18" t="n">
         <v>0.203333</v>
       </c>
-      <c r="J3" s="15" t="n">
+      <c r="J3" s="17" t="n">
         <v>1</v>
       </c>
       <c r="K3" s="6" t="n">
@@ -13451,10 +13465,10 @@
       <c r="H4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="14" t="n">
+      <c r="I4" s="16" t="n">
         <v>0.083333</v>
       </c>
-      <c r="J4" s="15" t="n">
+      <c r="J4" s="17" t="n">
         <v>4</v>
       </c>
       <c r="K4" s="6" t="n">
@@ -13486,7 +13500,7 @@
       <c r="H5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="14" t="n">
+      <c r="I5" s="16" t="n">
         <v>0.046667</v>
       </c>
       <c r="J5" s="6" t="n">
@@ -13522,15 +13536,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13562,10 +13576,10 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -13588,19 +13602,19 @@
       <c r="F2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="16" t="s">
         <v>58</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="18" t="n">
+      <c r="I2" s="20" t="n">
         <v>0.07</v>
       </c>
-      <c r="J2" s="17" t="n">
+      <c r="J2" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="K2" s="17" t="n">
+      <c r="K2" s="19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13623,19 +13637,19 @@
       <c r="F3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="16" t="s">
         <v>52</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="18" t="n">
+      <c r="I3" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="J3" s="17" t="n">
+      <c r="J3" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="K3" s="17" t="n">
+      <c r="K3" s="19" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13658,19 +13672,19 @@
       <c r="F4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="16" t="s">
         <v>60</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="18" t="n">
+      <c r="I4" s="20" t="n">
         <v>0.28</v>
       </c>
-      <c r="J4" s="17" t="n">
+      <c r="J4" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="17" t="n">
+      <c r="K4" s="19" t="n">
         <v>3</v>
       </c>
     </row>
@@ -13693,19 +13707,19 @@
       <c r="F5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="16" t="s">
         <v>37</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="18" t="n">
+      <c r="I5" s="20" t="n">
         <v>0.08</v>
       </c>
-      <c r="J5" s="17" t="n">
+      <c r="J5" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="17" t="n">
+      <c r="K5" s="19" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13728,89 +13742,89 @@
       <c r="F6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="16" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="18" t="n">
+      <c r="I6" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="J6" s="17" t="n">
+      <c r="J6" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="K6" s="17" t="n">
+      <c r="K6" s="19" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="17" t="s">
+      <c r="C7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="19" t="n">
+      <c r="I7" s="21" t="n">
         <v>0.04</v>
       </c>
-      <c r="J7" s="17" t="n">
+      <c r="J7" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="K7" s="17" t="n">
+      <c r="K7" s="19" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="17" t="s">
+      <c r="C8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="19" t="n">
+      <c r="I8" s="21" t="n">
         <v>0.04</v>
       </c>
-      <c r="J8" s="17" t="n">
+      <c r="J8" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="K8" s="17" t="n">
+      <c r="K8" s="19" t="n">
         <v>7</v>
       </c>
     </row>
@@ -13839,15 +13853,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13879,10 +13893,10 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -13905,19 +13919,19 @@
       <c r="F2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="16" t="s">
         <v>58</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="18" t="n">
+      <c r="I2" s="20" t="n">
         <v>0.07</v>
       </c>
-      <c r="J2" s="17" t="n">
+      <c r="J2" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="K2" s="17" t="n">
+      <c r="K2" s="19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13940,19 +13954,19 @@
       <c r="F3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="16" t="s">
         <v>52</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="18" t="n">
+      <c r="I3" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="J3" s="17" t="n">
+      <c r="J3" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="K3" s="17" t="n">
+      <c r="K3" s="19" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13975,19 +13989,19 @@
       <c r="F4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="16" t="s">
         <v>60</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="18" t="n">
+      <c r="I4" s="20" t="n">
         <v>0.28</v>
       </c>
-      <c r="J4" s="17" t="n">
+      <c r="J4" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="17" t="n">
+      <c r="K4" s="19" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14010,19 +14024,19 @@
       <c r="F5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="16" t="s">
         <v>37</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="18" t="n">
+      <c r="I5" s="20" t="n">
         <v>0.08</v>
       </c>
-      <c r="J5" s="17" t="n">
+      <c r="J5" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="17" t="n">
+      <c r="K5" s="19" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14045,89 +14059,89 @@
       <c r="F6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="16" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="18" t="n">
+      <c r="I6" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="J6" s="17" t="n">
+      <c r="J6" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="K6" s="17" t="n">
+      <c r="K6" s="19" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="17" t="s">
+      <c r="C7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="19" t="n">
+      <c r="I7" s="21" t="n">
         <v>0.04</v>
       </c>
-      <c r="J7" s="17" t="n">
+      <c r="J7" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="K7" s="17" t="n">
+      <c r="K7" s="19" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="17" t="s">
+      <c r="C8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="19" t="n">
+      <c r="I8" s="21" t="n">
         <v>0.04</v>
       </c>
-      <c r="J8" s="17" t="n">
+      <c r="J8" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="K8" s="17" t="n">
+      <c r="K8" s="19" t="n">
         <v>7</v>
       </c>
     </row>
